--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2160765.591102559</v>
+        <v>2182969.125921579</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10949141.55333651</v>
+        <v>10961753.83912031</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5854869.378345788</v>
+        <v>5853677.696614625</v>
       </c>
     </row>
     <row r="11">
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.54997085607869</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.54997085607869</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="T17" t="n">
-        <v>52.54997085607869</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="U17" t="n">
-        <v>46.28601433003409</v>
+        <v>52.45620989240299</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.54997085607869</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>52.54997085607869</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>46.28601433003409</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>52.45620989240299</v>
       </c>
       <c r="V18" t="n">
-        <v>52.54997085607869</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6.031492639496314</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3366343149716061</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.94938001506249</v>
+        <v>46.42471725290664</v>
       </c>
       <c r="R19" t="n">
-        <v>52.54997085607869</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>52.54997085607869</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>52.54997085607869</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>196.2533034131748</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>196.2533034131748</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>90.92086444350548</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>150.0718160886011</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>164.1475960664872</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>192.3973994101923</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>164.0821438770626</v>
       </c>
       <c r="X20" t="n">
-        <v>172.8599096463244</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>196.2533034131748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.88284952121097</v>
+        <v>107.5849301522231</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>113.7602454906715</v>
       </c>
       <c r="D21" t="n">
-        <v>88.02147482915039</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>98.22148971991258</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>86.12095889573968</v>
       </c>
       <c r="G21" t="n">
-        <v>77.91992642772227</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>52.8118535010081</v>
+        <v>53.28719073885227</v>
       </c>
       <c r="I21" t="n">
-        <v>29.97304211592672</v>
+        <v>20.1757420104276</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>41.20958065499894</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>166.5177913454864</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>192.2713924254313</v>
+        <v>192.7467296632754</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>146.7344422796602</v>
       </c>
     </row>
     <row r="22">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.4083894464489</v>
+        <v>120.8837266842931</v>
       </c>
       <c r="C22" t="n">
-        <v>12.28420554485094</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>87.48570914892497</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.41092661902858</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>27.21378975405019</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>118.3451378795253</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>166.2860646535488</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.1610626166064</v>
+        <v>67.00516401476669</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>197.1612038956107</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>223.843328673491</v>
-      </c>
-      <c r="W23" t="n">
-        <v>197.1612038956107</v>
       </c>
       <c r="X23" t="n">
         <v>223.843328673491</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>107.5849301522231</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>113.7602454906715</v>
       </c>
       <c r="D24" t="n">
-        <v>17.72972969491691</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>98.22148971991258</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>85.64562165789552</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>77.91992642772227</v>
+        <v>78.39526366556643</v>
       </c>
       <c r="H24" t="n">
-        <v>52.8118535010081</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>29.97304211592672</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>41.20958065499894</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>140.7411379593332</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>166.9931285833306</v>
       </c>
       <c r="V24" t="n">
-        <v>173.3769964139369</v>
+        <v>67.18886738379953</v>
       </c>
       <c r="W24" t="n">
-        <v>192.2713924254313</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>146.8247317058333</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>146.7344422796602</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>71.86472557264733</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,22 +2482,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>87.01037191108081</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>41.6761266088991</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>102.8035817719512</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.93558938118441</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>192.7140525883397</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>223.843328673491</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>159.6363998544506</v>
       </c>
     </row>
     <row r="26">
@@ -2552,26 +2552,26 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>107.0108415387886</v>
       </c>
       <c r="C26" t="n">
-        <v>223.843328673491</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>223.843328673491</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>223.843328673491</v>
       </c>
-      <c r="F26" t="n">
-        <v>197.1612038956107</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>90.15036235682223</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>223.843328673491</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>106.8144280655399</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>34.24436834068268</v>
+        <v>30.5109845381515</v>
       </c>
       <c r="G27" t="n">
-        <v>81.11197160629672</v>
+        <v>77.62476157888318</v>
       </c>
       <c r="H27" t="n">
-        <v>56.00389867958255</v>
+        <v>52.51668865216902</v>
       </c>
       <c r="I27" t="n">
-        <v>33.16508729450116</v>
+        <v>29.67787726708763</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>111.9644155195104</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>140.4459731104942</v>
       </c>
       <c r="U27" t="n">
-        <v>169.7098365240609</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>173.0818315650978</v>
       </c>
       <c r="W27" t="n">
-        <v>195.4634376040057</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>149.5414396465636</v>
+        <v>146.05422961915</v>
       </c>
       <c r="Y27" t="n">
-        <v>149.4511502203904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>35.56072040107343</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>102.5084169231121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>95.73171934293083</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.64042453234533</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>26.44328766736694</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>46.04714287871609</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>223.843328673491</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>169.4781098321232</v>
+        <v>165.9908998047097</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>223.843328673491</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>91.10712791890631</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>30.50035628965009</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.15290104643236</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>103.7270879126318</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>131.9768912563369</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>208.3834968186353</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>223.843328673491</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>223.843328673491</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>197.1612038956107</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.16442199836774</v>
+        <v>47.16442199836776</v>
       </c>
       <c r="C30" t="n">
-        <v>53.33973733681614</v>
+        <v>53.33973733681616</v>
       </c>
       <c r="D30" t="n">
-        <v>28.07630391313916</v>
+        <v>28.07630391313917</v>
       </c>
       <c r="E30" t="n">
-        <v>38.27631880390135</v>
+        <v>38.27631880390136</v>
       </c>
       <c r="F30" t="n">
-        <v>25.70045074188437</v>
+        <v>25.7004507418843</v>
       </c>
       <c r="G30" t="n">
-        <v>17.97475551171104</v>
+        <v>17.97475551171105</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>52.31440945233823</v>
+        <v>52.31440945233824</v>
       </c>
       <c r="T30" t="n">
-        <v>80.79596704332201</v>
+        <v>80.79596704332202</v>
       </c>
       <c r="U30" t="n">
         <v>106.5726204294752</v>
@@ -2934,10 +2934,10 @@
         <v>132.32622150942</v>
       </c>
       <c r="X30" t="n">
-        <v>86.40422355197788</v>
+        <v>86.40422355197789</v>
       </c>
       <c r="Y30" t="n">
-        <v>86.31393412580476</v>
+        <v>86.31393412580478</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.342102166334666</v>
+        <v>60.46321853043771</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.87805944712825</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>48.62221770695916</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>42.85841085593998</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>36.08171327575869</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.92462972566989</v>
+        <v>57.9246297256699</v>
       </c>
       <c r="S31" t="n">
-        <v>104.6478363854727</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>108.5768277767819</v>
       </c>
       <c r="U31" t="n">
         <v>166.9502677049913</v>
@@ -3010,13 +3010,13 @@
         <v>132.7688816723284</v>
       </c>
       <c r="W31" t="n">
-        <v>167.1542366850914</v>
+        <v>88.57251962061341</v>
       </c>
       <c r="X31" t="n">
         <v>106.3408937375376</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>99.21589170059521</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>223.843328673491</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>197.1612038956107</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,64 +3038,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>223.843328673491</v>
       </c>
-      <c r="G32" t="n">
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>223.843328673491</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>197.1612038956108</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.16442199836774</v>
+        <v>47.16442199836776</v>
       </c>
       <c r="C33" t="n">
-        <v>53.33973733681614</v>
+        <v>53.33973733681616</v>
       </c>
       <c r="D33" t="n">
-        <v>28.07630391313916</v>
+        <v>28.07630391313917</v>
       </c>
       <c r="E33" t="n">
-        <v>38.27631880390135</v>
+        <v>38.27631880390136</v>
       </c>
       <c r="F33" t="n">
-        <v>25.70045074188428</v>
+        <v>25.7004507418843</v>
       </c>
       <c r="G33" t="n">
-        <v>17.97475551171104</v>
+        <v>17.97475551171105</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>52.31440945233823</v>
+        <v>52.31440945233824</v>
       </c>
       <c r="T33" t="n">
-        <v>80.79596704332201</v>
+        <v>80.79596704332192</v>
       </c>
       <c r="U33" t="n">
         <v>106.5726204294752</v>
@@ -3171,10 +3171,10 @@
         <v>132.32622150942</v>
       </c>
       <c r="X33" t="n">
-        <v>86.40422355197788</v>
+        <v>86.40422355197789</v>
       </c>
       <c r="Y33" t="n">
-        <v>86.31393412580476</v>
+        <v>86.31393412580478</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60.4632185304377</v>
+        <v>60.46321853043771</v>
       </c>
       <c r="C34" t="n">
-        <v>47.87805944712824</v>
+        <v>47.87805944712825</v>
       </c>
       <c r="D34" t="n">
-        <v>29.24671136671276</v>
+        <v>16.26554921213593</v>
       </c>
       <c r="E34" t="n">
-        <v>27.06520099506957</v>
+        <v>27.06520099506959</v>
       </c>
       <c r="F34" t="n">
-        <v>26.05228637143165</v>
+        <v>26.05228637143166</v>
       </c>
       <c r="G34" t="n">
-        <v>48.62221770695916</v>
+        <v>48.62221770695918</v>
       </c>
       <c r="H34" t="n">
-        <v>42.85841085593998</v>
+        <v>42.85841085593999</v>
       </c>
       <c r="I34" t="n">
-        <v>36.08171327575869</v>
+        <v>36.0817132757587</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.92462972566989</v>
+        <v>57.9246297256699</v>
       </c>
       <c r="S34" t="n">
-        <v>45.596246753733</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>108.5768277767819</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>132.7688816723284</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>167.1542366850914</v>
       </c>
       <c r="X34" t="n">
         <v>106.3408937375376</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.21589170059519</v>
+        <v>99.21589170059521</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>223.843328673491</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>187.7484617398507</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,55 +3281,55 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>110.3180554177628</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>122.9380154114882</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>223.843328673491</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>197.1612038956108</v>
-      </c>
       <c r="W35" t="n">
-        <v>223.843328673491</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>223.843328673491</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C36" t="n">
         <v>72.55066483567261</v>
@@ -3351,13 +3351,13 @@
         <v>47.28723141199562</v>
       </c>
       <c r="E36" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
-        <v>70.2625847567717</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>125.7835479283317</v>
@@ -3405,7 +3405,7 @@
         <v>132.6427529967821</v>
       </c>
       <c r="W36" t="n">
-        <v>151.5371490082765</v>
+        <v>59.28923236807884</v>
       </c>
       <c r="X36" t="n">
         <v>105.6151510508343</v>
@@ -3424,16 +3424,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T37" t="n">
-        <v>68.00415978767538</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
         <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3651641839479</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>125.551821236394</v>
+        <v>119.4445955373926</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.843328673491</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>223.843328673491</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>223.843328673491</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>86.84314847784798</v>
+        <v>223.843328673491</v>
       </c>
       <c r="I38" t="n">
-        <v>110.3180554177628</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>74.22318848412257</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C39" t="n">
         <v>72.55066483567261</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H39" t="n">
-        <v>3.504830978152099</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>100.0068945421785</v>
       </c>
       <c r="U39" t="n">
-        <v>125.7835479283317</v>
+        <v>41.1043683613735</v>
       </c>
       <c r="V39" t="n">
         <v>132.6427529967821</v>
@@ -3645,7 +3645,7 @@
         <v>151.5371490082765</v>
       </c>
       <c r="X39" t="n">
-        <v>105.6151510508343</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>105.5248616246612</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>79.67414602929416</v>
+        <v>73.96055269392716</v>
       </c>
       <c r="C40" t="n">
         <v>67.0889869459847</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T40" t="n">
         <v>127.7877552756384</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V40" t="n">
-        <v>13.1674567123391</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3651641839479</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.50993782447691</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>94.36525174109971</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>23.62573728421691</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>32.2938191412218</v>
       </c>
       <c r="T42" t="n">
-        <v>106.8055485781488</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>132.582201964302</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W42" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X42" t="n">
-        <v>8.468132701761315</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.3235156606316</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.47280006526452</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H43" t="n">
-        <v>68.8679923907668</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I43" t="n">
-        <v>62.09129481058551</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>66.87013343786577</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>26.78468664419411</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.225473235422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,40 +3992,40 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>27.59002526031614</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="45">
@@ -4056,73 +4056,73 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4141,23 +4141,23 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="F46" t="n">
-        <v>22.44875936050941</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="C17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="D17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="E17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="F17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="G17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="H17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="I17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="J17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="K17" t="n">
-        <v>54.12646998176106</v>
+        <v>63.72405152687467</v>
       </c>
       <c r="L17" t="n">
-        <v>54.12646998176106</v>
+        <v>63.72405152687467</v>
       </c>
       <c r="M17" t="n">
-        <v>106.150941129279</v>
+        <v>63.72405152687467</v>
       </c>
       <c r="N17" t="n">
-        <v>106.150941129279</v>
+        <v>122.6836879863195</v>
       </c>
       <c r="O17" t="n">
-        <v>158.1754122767969</v>
+        <v>181.6433244457643</v>
       </c>
       <c r="P17" t="n">
-        <v>210.1998834243147</v>
+        <v>238.2207533714941</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.1998834243147</v>
+        <v>238.2207533714941</v>
       </c>
       <c r="R17" t="n">
-        <v>157.119104781811</v>
+        <v>238.2207533714941</v>
       </c>
       <c r="S17" t="n">
-        <v>104.0383261393073</v>
+        <v>178.0639974696016</v>
       </c>
       <c r="T17" t="n">
-        <v>50.95754749680356</v>
+        <v>117.9072415677092</v>
       </c>
       <c r="U17" t="n">
-        <v>4.203997668486295</v>
+        <v>64.92117096932233</v>
       </c>
       <c r="V17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="W17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="X17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.0383261393073</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="C18" t="n">
-        <v>104.0383261393073</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="D18" t="n">
-        <v>50.95754749680356</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="E18" t="n">
-        <v>50.95754749680356</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="F18" t="n">
-        <v>50.95754749680356</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="G18" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="H18" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="I18" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="J18" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="K18" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="L18" t="n">
-        <v>4.203997668486295</v>
+        <v>63.72405152687467</v>
       </c>
       <c r="M18" t="n">
-        <v>54.12646998176106</v>
+        <v>122.6836879863195</v>
       </c>
       <c r="N18" t="n">
-        <v>54.12646998176106</v>
+        <v>181.6433244457643</v>
       </c>
       <c r="O18" t="n">
-        <v>106.150941129279</v>
+        <v>238.2207533714941</v>
       </c>
       <c r="P18" t="n">
-        <v>158.1754122767969</v>
+        <v>238.2207533714941</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.1998834243147</v>
+        <v>238.2207533714941</v>
       </c>
       <c r="R18" t="n">
-        <v>210.1998834243147</v>
+        <v>238.2207533714941</v>
       </c>
       <c r="S18" t="n">
-        <v>210.1998834243147</v>
+        <v>178.0639974696016</v>
       </c>
       <c r="T18" t="n">
-        <v>210.1998834243147</v>
+        <v>117.9072415677092</v>
       </c>
       <c r="U18" t="n">
-        <v>210.1998834243147</v>
+        <v>64.92117096932233</v>
       </c>
       <c r="V18" t="n">
-        <v>157.119104781811</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="W18" t="n">
-        <v>157.119104781811</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="X18" t="n">
-        <v>157.119104781811</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.119104781811</v>
+        <v>4.764415067429882</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.544032330073776</v>
+        <v>71.01358777689437</v>
       </c>
       <c r="C19" t="n">
-        <v>4.544032330073776</v>
+        <v>10.85683187500192</v>
       </c>
       <c r="D19" t="n">
-        <v>4.544032330073776</v>
+        <v>10.85683187500192</v>
       </c>
       <c r="E19" t="n">
-        <v>4.544032330073776</v>
+        <v>10.85683187500192</v>
       </c>
       <c r="F19" t="n">
-        <v>4.544032330073776</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="G19" t="n">
-        <v>4.544032330073776</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="H19" t="n">
-        <v>4.544032330073776</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="I19" t="n">
-        <v>4.544032330073776</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="J19" t="n">
-        <v>4.203997668486295</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="K19" t="n">
-        <v>21.96773736512785</v>
+        <v>4.764415067429882</v>
       </c>
       <c r="L19" t="n">
-        <v>49.28186237284083</v>
+        <v>32.07854007514286</v>
       </c>
       <c r="M19" t="n">
-        <v>88.469900565063</v>
+        <v>91.03817653458765</v>
       </c>
       <c r="N19" t="n">
-        <v>132.1607512204993</v>
+        <v>149.9978129940324</v>
       </c>
       <c r="O19" t="n">
-        <v>173.0835731478046</v>
+        <v>201.5750269604497</v>
       </c>
       <c r="P19" t="n">
-        <v>210.1998834243147</v>
+        <v>238.2207533714941</v>
       </c>
       <c r="Q19" t="n">
-        <v>163.786368257585</v>
+        <v>191.3270995806793</v>
       </c>
       <c r="R19" t="n">
-        <v>110.7055896150812</v>
+        <v>131.1703436787868</v>
       </c>
       <c r="S19" t="n">
-        <v>110.7055896150812</v>
+        <v>131.1703436787868</v>
       </c>
       <c r="T19" t="n">
-        <v>110.7055896150812</v>
+        <v>131.1703436787868</v>
       </c>
       <c r="U19" t="n">
-        <v>110.7055896150812</v>
+        <v>131.1703436787868</v>
       </c>
       <c r="V19" t="n">
-        <v>110.7055896150812</v>
+        <v>131.1703436787868</v>
       </c>
       <c r="W19" t="n">
-        <v>57.62481097257751</v>
+        <v>131.1703436787868</v>
       </c>
       <c r="X19" t="n">
-        <v>4.544032330073776</v>
+        <v>131.1703436787868</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.544032330073776</v>
+        <v>131.1703436787868</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>412.1715842996698</v>
+        <v>15.70026427305399</v>
       </c>
       <c r="C20" t="n">
-        <v>412.1715842996698</v>
+        <v>15.70026427305399</v>
       </c>
       <c r="D20" t="n">
-        <v>412.1715842996698</v>
+        <v>15.70026427305399</v>
       </c>
       <c r="E20" t="n">
-        <v>213.9359242863619</v>
+        <v>15.70026427305399</v>
       </c>
       <c r="F20" t="n">
         <v>15.70026427305399</v>
@@ -5753,19 +5753,19 @@
         <v>15.70026427305399</v>
       </c>
       <c r="K20" t="n">
-        <v>15.70026427305399</v>
+        <v>67.16087116730651</v>
       </c>
       <c r="L20" t="n">
-        <v>195.7761158577126</v>
+        <v>247.2367227519651</v>
       </c>
       <c r="M20" t="n">
-        <v>351.8674378389572</v>
+        <v>441.5274931310082</v>
       </c>
       <c r="N20" t="n">
-        <v>546.1582082180003</v>
+        <v>635.8182635100512</v>
       </c>
       <c r="O20" t="n">
-        <v>695.3531583606483</v>
+        <v>785.0132136526993</v>
       </c>
       <c r="P20" t="n">
         <v>785.0132136526993</v>
@@ -5774,28 +5774,28 @@
         <v>785.0132136526993</v>
       </c>
       <c r="R20" t="n">
-        <v>785.0132136526993</v>
+        <v>693.1739566390573</v>
       </c>
       <c r="S20" t="n">
-        <v>785.0132136526993</v>
+        <v>541.5862636202683</v>
       </c>
       <c r="T20" t="n">
-        <v>785.0132136526993</v>
+        <v>375.780611027857</v>
       </c>
       <c r="U20" t="n">
-        <v>785.0132136526993</v>
+        <v>181.4398035428142</v>
       </c>
       <c r="V20" t="n">
-        <v>785.0132136526993</v>
+        <v>181.4398035428142</v>
       </c>
       <c r="W20" t="n">
-        <v>785.0132136526993</v>
+        <v>15.70026427305399</v>
       </c>
       <c r="X20" t="n">
-        <v>610.4072443129777</v>
+        <v>15.70026427305399</v>
       </c>
       <c r="Y20" t="n">
-        <v>412.1715842996698</v>
+        <v>15.70026427305399</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>366.1525739636803</v>
+        <v>291.8054532990046</v>
       </c>
       <c r="C21" t="n">
-        <v>366.1525739636803</v>
+        <v>176.8961144195384</v>
       </c>
       <c r="D21" t="n">
-        <v>277.2419933281749</v>
+        <v>176.8961144195384</v>
       </c>
       <c r="E21" t="n">
-        <v>178.0283673484652</v>
+        <v>176.8961144195384</v>
       </c>
       <c r="F21" t="n">
-        <v>178.0283673484652</v>
+        <v>89.90524684808416</v>
       </c>
       <c r="G21" t="n">
-        <v>99.32137095682654</v>
+        <v>89.90524684808416</v>
       </c>
       <c r="H21" t="n">
-        <v>45.97606439015168</v>
+        <v>36.07980165732429</v>
       </c>
       <c r="I21" t="n">
         <v>15.70026427305399</v>
@@ -5832,49 +5832,49 @@
         <v>15.70026427305399</v>
       </c>
       <c r="K21" t="n">
-        <v>141.0578243308914</v>
+        <v>15.70026427305399</v>
       </c>
       <c r="L21" t="n">
-        <v>335.3485947099344</v>
+        <v>209.9910346520971</v>
       </c>
       <c r="M21" t="n">
-        <v>529.6393650889775</v>
+        <v>404.2818050311402</v>
       </c>
       <c r="N21" t="n">
-        <v>529.6393650889775</v>
+        <v>598.5725754101832</v>
       </c>
       <c r="O21" t="n">
-        <v>715.6186551393699</v>
+        <v>785.0132136526993</v>
       </c>
       <c r="P21" t="n">
-        <v>715.6186551393699</v>
+        <v>785.0132136526993</v>
       </c>
       <c r="Q21" t="n">
         <v>785.0132136526993</v>
       </c>
       <c r="R21" t="n">
-        <v>785.0132136526993</v>
+        <v>743.3873746072458</v>
       </c>
       <c r="S21" t="n">
-        <v>785.0132136526993</v>
+        <v>743.3873746072458</v>
       </c>
       <c r="T21" t="n">
-        <v>785.0132136526993</v>
+        <v>743.3873746072458</v>
       </c>
       <c r="U21" t="n">
-        <v>616.8134244148341</v>
+        <v>743.3873746072458</v>
       </c>
       <c r="V21" t="n">
-        <v>616.8134244148341</v>
+        <v>743.3873746072458</v>
       </c>
       <c r="W21" t="n">
-        <v>422.5998967123783</v>
+        <v>548.6937082807049</v>
       </c>
       <c r="X21" t="n">
-        <v>422.5998967123783</v>
+        <v>548.6937082807049</v>
       </c>
       <c r="Y21" t="n">
-        <v>422.5998967123783</v>
+        <v>400.4770999174118</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.10855270219635</v>
+        <v>138.8281791901788</v>
       </c>
       <c r="C22" t="n">
-        <v>15.70026427305399</v>
+        <v>138.8281791901788</v>
       </c>
       <c r="D22" t="n">
-        <v>15.70026427305399</v>
+        <v>138.8281791901788</v>
       </c>
       <c r="E22" t="n">
-        <v>15.70026427305399</v>
+        <v>50.4587760094465</v>
       </c>
       <c r="F22" t="n">
-        <v>15.70026427305399</v>
+        <v>50.4587760094465</v>
       </c>
       <c r="G22" t="n">
-        <v>15.70026427305399</v>
+        <v>50.4587760094465</v>
       </c>
       <c r="H22" t="n">
-        <v>15.70026427305399</v>
+        <v>50.4587760094465</v>
       </c>
       <c r="I22" t="n">
-        <v>15.70026427305399</v>
+        <v>50.4587760094465</v>
       </c>
       <c r="J22" t="n">
         <v>15.70026427305399</v>
       </c>
       <c r="K22" t="n">
-        <v>52.48282219356344</v>
+        <v>52.01223832809771</v>
       </c>
       <c r="L22" t="n">
-        <v>138.6263020294099</v>
+        <v>137.6851342984784</v>
       </c>
       <c r="M22" t="n">
-        <v>236.6436950497655</v>
+        <v>235.2319434533684</v>
       </c>
       <c r="N22" t="n">
-        <v>339.1639005333353</v>
+        <v>337.2815650714725</v>
       </c>
       <c r="O22" t="n">
-        <v>422.3325319963681</v>
+        <v>419.9796126690395</v>
       </c>
       <c r="P22" t="n">
-        <v>478.4676604967461</v>
+        <v>475.6441573039518</v>
       </c>
       <c r="Q22" t="n">
-        <v>478.4676604967461</v>
+        <v>448.1554807847092</v>
       </c>
       <c r="R22" t="n">
-        <v>478.4676604967461</v>
+        <v>328.6149374720574</v>
       </c>
       <c r="S22" t="n">
-        <v>478.4676604967461</v>
+        <v>328.6149374720574</v>
       </c>
       <c r="T22" t="n">
-        <v>478.4676604967461</v>
+        <v>328.6149374720574</v>
       </c>
       <c r="U22" t="n">
-        <v>478.4676604967461</v>
+        <v>328.6149374720574</v>
       </c>
       <c r="V22" t="n">
-        <v>478.4676604967461</v>
+        <v>328.6149374720574</v>
       </c>
       <c r="W22" t="n">
-        <v>478.4676604967461</v>
+        <v>328.6149374720574</v>
       </c>
       <c r="X22" t="n">
-        <v>310.5019386244745</v>
+        <v>328.6149374720574</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.7331885066902</v>
+        <v>260.9329536187577</v>
       </c>
     </row>
     <row r="23">
@@ -5993,16 +5993,16 @@
         <v>120.9224722048016</v>
       </c>
       <c r="L23" t="n">
-        <v>233.6881597891213</v>
+        <v>300.9983237894602</v>
       </c>
       <c r="M23" t="n">
-        <v>450.6637870520255</v>
+        <v>517.9739510523643</v>
       </c>
       <c r="N23" t="n">
-        <v>656.5183092592648</v>
+        <v>723.8284732596037</v>
       </c>
       <c r="O23" t="n">
-        <v>805.7132594019129</v>
+        <v>873.0234234022518</v>
       </c>
       <c r="P23" t="n">
         <v>895.3733146939638</v>
@@ -6023,16 +6023,16 @@
         <v>895.3733146939638</v>
       </c>
       <c r="V23" t="n">
+        <v>895.3733146939638</v>
+      </c>
+      <c r="W23" t="n">
         <v>669.2689422964982</v>
       </c>
-      <c r="W23" t="n">
-        <v>470.1162110888105</v>
-      </c>
       <c r="X23" t="n">
-        <v>244.0118386913449</v>
+        <v>443.1645698990325</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.90746629387928</v>
+        <v>217.0601975015669</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>383.8687421700229</v>
+        <v>212.0039401890692</v>
       </c>
       <c r="C24" t="n">
-        <v>383.8687421700229</v>
+        <v>97.09460130960295</v>
       </c>
       <c r="D24" t="n">
-        <v>365.9599242963694</v>
+        <v>97.09460130960295</v>
       </c>
       <c r="E24" t="n">
-        <v>266.7462983166597</v>
+        <v>97.09460130960295</v>
       </c>
       <c r="F24" t="n">
-        <v>180.2355693692905</v>
+        <v>97.09460130960295</v>
       </c>
       <c r="G24" t="n">
-        <v>101.5285729776518</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="H24" t="n">
-        <v>48.18326641097697</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="I24" t="n">
         <v>17.90746629387928</v>
@@ -6069,49 +6069,49 @@
         <v>17.90746629387928</v>
       </c>
       <c r="K24" t="n">
-        <v>143.2650263517167</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="L24" t="n">
-        <v>200.1254877937716</v>
+        <v>47.9151509203447</v>
       </c>
       <c r="M24" t="n">
-        <v>421.7303831805276</v>
+        <v>269.5200463071008</v>
       </c>
       <c r="N24" t="n">
-        <v>643.3352785672837</v>
+        <v>491.1249416938568</v>
       </c>
       <c r="O24" t="n">
-        <v>643.3352785672837</v>
+        <v>712.7298370806129</v>
       </c>
       <c r="P24" t="n">
-        <v>825.9787561806345</v>
+        <v>895.3733146939638</v>
       </c>
       <c r="Q24" t="n">
         <v>895.3733146939638</v>
       </c>
       <c r="R24" t="n">
-        <v>895.3733146939638</v>
+        <v>853.7474756485103</v>
       </c>
       <c r="S24" t="n">
-        <v>895.3733146939638</v>
+        <v>853.7474756485103</v>
       </c>
       <c r="T24" t="n">
-        <v>753.2105490784757</v>
+        <v>853.7474756485103</v>
       </c>
       <c r="U24" t="n">
-        <v>753.2105490784757</v>
+        <v>685.0675477865602</v>
       </c>
       <c r="V24" t="n">
-        <v>578.0822698724787</v>
+        <v>617.2000049746415</v>
       </c>
       <c r="W24" t="n">
-        <v>383.8687421700229</v>
+        <v>617.2000049746415</v>
       </c>
       <c r="X24" t="n">
-        <v>383.8687421700229</v>
+        <v>468.8921951707695</v>
       </c>
       <c r="Y24" t="n">
-        <v>383.8687421700229</v>
+        <v>320.6755868074764</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>286.0142033374303</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="C25" t="n">
-        <v>286.0142033374303</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="D25" t="n">
-        <v>286.0142033374303</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="E25" t="n">
-        <v>198.1249387807831</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="F25" t="n">
-        <v>156.0278411960365</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="G25" t="n">
-        <v>156.0278411960365</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="H25" t="n">
-        <v>52.18583940618677</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="I25" t="n">
-        <v>52.18583940618677</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="J25" t="n">
         <v>17.90746629387928</v>
       </c>
       <c r="K25" t="n">
-        <v>54.69002421438873</v>
+        <v>54.219440348923</v>
       </c>
       <c r="L25" t="n">
-        <v>140.8335040502352</v>
+        <v>139.8923363193038</v>
       </c>
       <c r="M25" t="n">
-        <v>238.8508970705908</v>
+        <v>237.4391454741937</v>
       </c>
       <c r="N25" t="n">
-        <v>341.3711025541606</v>
+        <v>339.4887670922978</v>
       </c>
       <c r="O25" t="n">
-        <v>424.5397340171934</v>
+        <v>422.1868146898648</v>
       </c>
       <c r="P25" t="n">
-        <v>480.6748625175714</v>
+        <v>477.8513593247771</v>
       </c>
       <c r="Q25" t="n">
-        <v>480.6748625175714</v>
+        <v>477.8513593247771</v>
       </c>
       <c r="R25" t="n">
-        <v>480.6748625175714</v>
+        <v>477.8513593247771</v>
       </c>
       <c r="S25" t="n">
-        <v>480.6748625175714</v>
+        <v>477.8513593247771</v>
       </c>
       <c r="T25" t="n">
-        <v>480.6748625175714</v>
+        <v>477.8513593247771</v>
       </c>
       <c r="U25" t="n">
-        <v>480.6748625175714</v>
+        <v>477.8513593247771</v>
       </c>
       <c r="V25" t="n">
-        <v>286.0142033374303</v>
+        <v>477.8513593247771</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0142033374303</v>
+        <v>251.7469869273115</v>
       </c>
       <c r="X25" t="n">
-        <v>286.0142033374303</v>
+        <v>251.7469869273115</v>
       </c>
       <c r="Y25" t="n">
-        <v>286.0142033374303</v>
+        <v>90.49809818544225</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>895.3733146939638</v>
+        <v>470.1162110888105</v>
       </c>
       <c r="C26" t="n">
-        <v>669.2689422964982</v>
+        <v>470.1162110888105</v>
       </c>
       <c r="D26" t="n">
-        <v>443.1645698990325</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="E26" t="n">
-        <v>217.0601975015669</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="F26" t="n">
-        <v>17.90746629387928</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="G26" t="n">
-        <v>17.90746629387928</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="H26" t="n">
         <v>17.90746629387928</v>
@@ -6248,28 +6248,28 @@
         <v>895.3733146939638</v>
       </c>
       <c r="R26" t="n">
-        <v>895.3733146939638</v>
+        <v>804.3123426163656</v>
       </c>
       <c r="S26" t="n">
-        <v>895.3733146939638</v>
+        <v>804.3123426163656</v>
       </c>
       <c r="T26" t="n">
-        <v>895.3733146939638</v>
+        <v>804.3123426163656</v>
       </c>
       <c r="U26" t="n">
-        <v>895.3733146939638</v>
+        <v>804.3123426163656</v>
       </c>
       <c r="V26" t="n">
-        <v>895.3733146939638</v>
+        <v>804.3123426163656</v>
       </c>
       <c r="W26" t="n">
-        <v>895.3733146939638</v>
+        <v>804.3123426163656</v>
       </c>
       <c r="X26" t="n">
-        <v>895.3733146939638</v>
+        <v>578.2079702189001</v>
       </c>
       <c r="Y26" t="n">
-        <v>895.3733146939638</v>
+        <v>578.2079702189001</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>224.4987045979834</v>
+        <v>210.1603067345776</v>
       </c>
       <c r="C27" t="n">
-        <v>224.4987045979834</v>
+        <v>210.1603067345776</v>
       </c>
       <c r="D27" t="n">
-        <v>224.4987045979834</v>
+        <v>210.1603067345776</v>
       </c>
       <c r="E27" t="n">
-        <v>224.4987045979834</v>
+        <v>210.1603067345776</v>
       </c>
       <c r="F27" t="n">
-        <v>189.9084335467888</v>
+        <v>179.3411304334145</v>
       </c>
       <c r="G27" t="n">
-        <v>107.977149095984</v>
+        <v>100.9322803537345</v>
       </c>
       <c r="H27" t="n">
-        <v>51.40755447014308</v>
+        <v>47.8851200990183</v>
       </c>
       <c r="I27" t="n">
         <v>17.90746629387928</v>
@@ -6330,25 +6330,25 @@
         <v>895.3733146939638</v>
       </c>
       <c r="S27" t="n">
-        <v>895.3733146939638</v>
+        <v>782.2779454823371</v>
       </c>
       <c r="T27" t="n">
-        <v>895.3733146939638</v>
+        <v>640.4133261788077</v>
       </c>
       <c r="U27" t="n">
-        <v>723.9492373969326</v>
+        <v>640.4133261788077</v>
       </c>
       <c r="V27" t="n">
-        <v>723.9492373969326</v>
+        <v>465.5831932847694</v>
       </c>
       <c r="W27" t="n">
-        <v>526.5114216353107</v>
+        <v>465.5831932847694</v>
       </c>
       <c r="X27" t="n">
-        <v>375.4594623963577</v>
+        <v>318.0536684169412</v>
       </c>
       <c r="Y27" t="n">
-        <v>224.4987045979834</v>
+        <v>318.0536684169412</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.90746629387928</v>
+        <v>288.0501745761638</v>
       </c>
       <c r="C28" t="n">
-        <v>17.90746629387928</v>
+        <v>252.13025497912</v>
       </c>
       <c r="D28" t="n">
-        <v>17.90746629387928</v>
+        <v>252.13025497912</v>
       </c>
       <c r="E28" t="n">
-        <v>17.90746629387928</v>
+        <v>252.13025497912</v>
       </c>
       <c r="F28" t="n">
-        <v>17.90746629387928</v>
+        <v>252.13025497912</v>
       </c>
       <c r="G28" t="n">
-        <v>17.90746629387928</v>
+        <v>252.13025497912</v>
       </c>
       <c r="H28" t="n">
-        <v>17.90746629387928</v>
+        <v>148.5863995012289</v>
       </c>
       <c r="I28" t="n">
-        <v>17.90746629387928</v>
+        <v>51.8876930942281</v>
       </c>
       <c r="J28" t="n">
         <v>17.90746629387928</v>
       </c>
       <c r="K28" t="n">
-        <v>51.52989948760003</v>
+        <v>54.98223741473943</v>
       </c>
       <c r="L28" t="n">
-        <v>134.5132545966578</v>
+        <v>141.4179304509366</v>
       </c>
       <c r="M28" t="n">
-        <v>229.3705228902247</v>
+        <v>239.727536671643</v>
       </c>
       <c r="N28" t="n">
-        <v>328.7306036470059</v>
+        <v>342.5399553555634</v>
       </c>
       <c r="O28" t="n">
-        <v>408.7391103832499</v>
+        <v>426.0008000189469</v>
       </c>
       <c r="P28" t="n">
-        <v>461.7141141568392</v>
+        <v>482.4281417196756</v>
       </c>
       <c r="Q28" t="n">
-        <v>461.7141141568392</v>
+        <v>455.7177501364767</v>
       </c>
       <c r="R28" t="n">
-        <v>461.7141141568392</v>
+        <v>455.7177501364767</v>
       </c>
       <c r="S28" t="n">
-        <v>461.7141141568392</v>
+        <v>455.7177501364767</v>
       </c>
       <c r="T28" t="n">
-        <v>461.7141141568392</v>
+        <v>455.7177501364767</v>
       </c>
       <c r="U28" t="n">
-        <v>461.7141141568392</v>
+        <v>455.7177501364767</v>
       </c>
       <c r="V28" t="n">
-        <v>415.2018486227826</v>
+        <v>455.7177501364767</v>
       </c>
       <c r="W28" t="n">
-        <v>189.0974762253169</v>
+        <v>455.7177501364767</v>
       </c>
       <c r="X28" t="n">
-        <v>17.90746629387928</v>
+        <v>288.0501745761638</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.90746629387928</v>
+        <v>288.0501745761638</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.9348682321685</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="C29" t="n">
-        <v>109.9348682321685</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="D29" t="n">
-        <v>109.9348682321685</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="E29" t="n">
-        <v>109.9348682321685</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="F29" t="n">
-        <v>109.9348682321685</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="G29" t="n">
-        <v>109.9348682321685</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="H29" t="n">
-        <v>109.9348682321685</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="I29" t="n">
         <v>17.90746629387928</v>
@@ -6467,7 +6467,7 @@
         <v>120.9224722048016</v>
       </c>
       <c r="L29" t="n">
-        <v>233.6881597891213</v>
+        <v>300.9983237894602</v>
       </c>
       <c r="M29" t="n">
         <v>450.6637870520255</v>
@@ -6485,28 +6485,28 @@
         <v>895.3733146939638</v>
       </c>
       <c r="R29" t="n">
-        <v>864.5648739973476</v>
+        <v>895.3733146939638</v>
       </c>
       <c r="S29" t="n">
-        <v>784.612448697921</v>
+        <v>895.3733146939638</v>
       </c>
       <c r="T29" t="n">
-        <v>679.8376124225354</v>
+        <v>895.3733146939638</v>
       </c>
       <c r="U29" t="n">
-        <v>546.5276212545183</v>
+        <v>895.3733146939638</v>
       </c>
       <c r="V29" t="n">
-        <v>336.0392406296342</v>
+        <v>895.3733146939638</v>
       </c>
       <c r="W29" t="n">
-        <v>336.0392406296342</v>
+        <v>669.2689422964982</v>
       </c>
       <c r="X29" t="n">
-        <v>336.0392406296342</v>
+        <v>443.1645698990325</v>
       </c>
       <c r="Y29" t="n">
-        <v>336.0392406296342</v>
+        <v>244.0118386913449</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>182.9252100387803</v>
+        <v>182.9252100387802</v>
       </c>
       <c r="C30" t="n">
-        <v>129.0466874763398</v>
+        <v>129.0466874763397</v>
       </c>
       <c r="D30" t="n">
-        <v>100.686784533775</v>
+        <v>100.6867845337749</v>
       </c>
       <c r="E30" t="n">
-        <v>62.02383624700596</v>
+        <v>62.02383624700576</v>
       </c>
       <c r="F30" t="n">
-        <v>36.0637849925773</v>
+        <v>36.06378499257733</v>
       </c>
       <c r="G30" t="n">
         <v>17.90746629387928</v>
@@ -6543,19 +6543,19 @@
         <v>17.90746629387928</v>
       </c>
       <c r="K30" t="n">
-        <v>143.2650263517167</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1640700203663</v>
+        <v>200.1254877937716</v>
       </c>
       <c r="M30" t="n">
-        <v>382.7689654071223</v>
+        <v>200.1254877937716</v>
       </c>
       <c r="N30" t="n">
-        <v>604.3738607938784</v>
+        <v>421.7303831805276</v>
       </c>
       <c r="O30" t="n">
-        <v>825.9787561806345</v>
+        <v>643.3352785672837</v>
       </c>
       <c r="P30" t="n">
         <v>825.9787561806345</v>
@@ -6567,10 +6567,10 @@
         <v>895.3733146939638</v>
       </c>
       <c r="S30" t="n">
-        <v>842.5304768633191</v>
+        <v>842.530476863319</v>
       </c>
       <c r="T30" t="n">
-        <v>760.9183889407716</v>
+        <v>760.9183889407715</v>
       </c>
       <c r="U30" t="n">
         <v>653.2692773958471</v>
@@ -6579,13 +6579,13 @@
         <v>538.6916758827908</v>
       </c>
       <c r="W30" t="n">
-        <v>405.0288258732757</v>
+        <v>405.0288258732758</v>
       </c>
       <c r="X30" t="n">
-        <v>317.7518323864293</v>
+        <v>317.7518323864294</v>
       </c>
       <c r="Y30" t="n">
-        <v>230.5660403401619</v>
+        <v>230.5660403401618</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.7583166359579</v>
+        <v>66.26914250309974</v>
       </c>
       <c r="C31" t="n">
-        <v>146.7583166359579</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="D31" t="n">
-        <v>146.7583166359579</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="E31" t="n">
-        <v>146.7583166359579</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="F31" t="n">
-        <v>146.7583166359579</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="G31" t="n">
-        <v>97.64496541680722</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="H31" t="n">
-        <v>54.35364131989816</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="I31" t="n">
         <v>17.90746629387928</v>
       </c>
       <c r="J31" t="n">
-        <v>43.65695201335783</v>
+        <v>43.65695201335785</v>
       </c>
       <c r="K31" t="n">
         <v>139.7852291407184</v>
@@ -6628,7 +6628,7 @@
         <v>285.274428183416</v>
       </c>
       <c r="M31" t="n">
-        <v>442.6375404106228</v>
+        <v>442.6375404106227</v>
       </c>
       <c r="N31" t="n">
         <v>604.5034651010437</v>
@@ -6646,25 +6646,25 @@
         <v>836.8635876983377</v>
       </c>
       <c r="S31" t="n">
-        <v>731.1587024604866</v>
+        <v>836.8635876983377</v>
       </c>
       <c r="T31" t="n">
-        <v>731.1587024604866</v>
+        <v>727.1900242874469</v>
       </c>
       <c r="U31" t="n">
-        <v>562.5220684150408</v>
+        <v>558.5533902420011</v>
       </c>
       <c r="V31" t="n">
-        <v>428.4120869278404</v>
+        <v>424.4434087548007</v>
       </c>
       <c r="W31" t="n">
-        <v>259.5694236095662</v>
+        <v>334.9762172188275</v>
       </c>
       <c r="X31" t="n">
-        <v>152.1543794302353</v>
+        <v>227.5611730394967</v>
       </c>
       <c r="Y31" t="n">
-        <v>152.1543794302353</v>
+        <v>127.343100614653</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>470.1162110888105</v>
+        <v>217.0601975015669</v>
       </c>
       <c r="C32" t="n">
-        <v>470.1162110888105</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="D32" t="n">
-        <v>470.1162110888105</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="E32" t="n">
-        <v>470.1162110888105</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="F32" t="n">
-        <v>244.0118386913449</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="G32" t="n">
         <v>17.90746629387928</v>
@@ -6701,16 +6701,16 @@
         <v>17.90746629387928</v>
       </c>
       <c r="K32" t="n">
-        <v>120.9224722048016</v>
+        <v>53.61230820446275</v>
       </c>
       <c r="L32" t="n">
-        <v>300.9983237894602</v>
+        <v>233.6881597891213</v>
       </c>
       <c r="M32" t="n">
-        <v>517.9739510523643</v>
+        <v>450.6637870520255</v>
       </c>
       <c r="N32" t="n">
-        <v>723.8284732596037</v>
+        <v>656.5183092592648</v>
       </c>
       <c r="O32" t="n">
         <v>805.7132594019129</v>
@@ -6737,13 +6737,13 @@
         <v>895.3733146939638</v>
       </c>
       <c r="W32" t="n">
-        <v>696.2205834862762</v>
+        <v>669.2689422964982</v>
       </c>
       <c r="X32" t="n">
-        <v>696.2205834862762</v>
+        <v>669.2689422964982</v>
       </c>
       <c r="Y32" t="n">
-        <v>696.2205834862762</v>
+        <v>443.1645698990325</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>182.9252100387808</v>
+        <v>182.9252100387803</v>
       </c>
       <c r="C33" t="n">
-        <v>129.0466874763403</v>
+        <v>129.0466874763398</v>
       </c>
       <c r="D33" t="n">
-        <v>100.6867845337754</v>
+        <v>100.686784533775</v>
       </c>
       <c r="E33" t="n">
-        <v>62.02383624700633</v>
+        <v>62.0238362470059</v>
       </c>
       <c r="F33" t="n">
         <v>36.06378499257731</v>
@@ -6783,16 +6783,16 @@
         <v>143.2650263517167</v>
       </c>
       <c r="L33" t="n">
+        <v>143.2650263517167</v>
+      </c>
+      <c r="M33" t="n">
         <v>364.8699217384727</v>
       </c>
-      <c r="M33" t="n">
-        <v>586.4748171252288</v>
-      </c>
       <c r="N33" t="n">
-        <v>808.0797125119849</v>
+        <v>421.7303831805276</v>
       </c>
       <c r="O33" t="n">
-        <v>825.9787561806345</v>
+        <v>643.3352785672837</v>
       </c>
       <c r="P33" t="n">
         <v>825.9787561806345</v>
@@ -6804,25 +6804,25 @@
         <v>895.3733146939638</v>
       </c>
       <c r="S33" t="n">
-        <v>842.5304768633193</v>
+        <v>842.5304768633191</v>
       </c>
       <c r="T33" t="n">
-        <v>760.918388940772</v>
+        <v>760.9183889407717</v>
       </c>
       <c r="U33" t="n">
-        <v>653.2692773958476</v>
+        <v>653.2692773958472</v>
       </c>
       <c r="V33" t="n">
-        <v>538.6916758827914</v>
+        <v>538.6916758827909</v>
       </c>
       <c r="W33" t="n">
-        <v>405.0288258732763</v>
+        <v>405.0288258732758</v>
       </c>
       <c r="X33" t="n">
-        <v>317.7518323864299</v>
+        <v>317.7518323864294</v>
       </c>
       <c r="Y33" t="n">
-        <v>230.5660403401623</v>
+        <v>230.5660403401619</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>278.3161531817581</v>
+        <v>265.2038681771352</v>
       </c>
       <c r="C34" t="n">
-        <v>229.9544769725377</v>
+        <v>216.8421919679147</v>
       </c>
       <c r="D34" t="n">
-        <v>200.4123442788884</v>
+        <v>200.4123442788885</v>
       </c>
       <c r="E34" t="n">
-        <v>173.0737574151818</v>
+        <v>173.0737574151819</v>
       </c>
       <c r="F34" t="n">
-        <v>146.7583166359579</v>
+        <v>146.758316635958</v>
       </c>
       <c r="G34" t="n">
-        <v>97.64496541680722</v>
+        <v>97.64496541680725</v>
       </c>
       <c r="H34" t="n">
-        <v>54.35364131989816</v>
+        <v>54.35364131989817</v>
       </c>
       <c r="I34" t="n">
         <v>17.90746629387928</v>
       </c>
       <c r="J34" t="n">
-        <v>43.65695201335785</v>
+        <v>43.65695201335782</v>
       </c>
       <c r="K34" t="n">
-        <v>139.7852291407185</v>
+        <v>139.7852291407184</v>
       </c>
       <c r="L34" t="n">
-        <v>285.274428183416</v>
+        <v>285.2744281834159</v>
       </c>
       <c r="M34" t="n">
-        <v>442.6375404106228</v>
+        <v>442.6375404106227</v>
       </c>
       <c r="N34" t="n">
-        <v>604.5034651010437</v>
+        <v>604.5034651010436</v>
       </c>
       <c r="O34" t="n">
         <v>747.0178157709274</v>
       </c>
       <c r="P34" t="n">
-        <v>862.4986634781567</v>
+        <v>862.4986634781566</v>
       </c>
       <c r="Q34" t="n">
-        <v>895.3733146939638</v>
+        <v>895.3733146939637</v>
       </c>
       <c r="R34" t="n">
-        <v>836.8635876983377</v>
+        <v>836.8635876983376</v>
       </c>
       <c r="S34" t="n">
-        <v>790.8067727955771</v>
+        <v>836.8635876983376</v>
       </c>
       <c r="T34" t="n">
-        <v>681.1332093846863</v>
+        <v>836.8635876983376</v>
       </c>
       <c r="U34" t="n">
-        <v>681.1332093846863</v>
+        <v>836.8635876983376</v>
       </c>
       <c r="V34" t="n">
-        <v>547.0232278974859</v>
+        <v>702.7536062111371</v>
       </c>
       <c r="W34" t="n">
-        <v>547.0232278974859</v>
+        <v>533.910942892863</v>
       </c>
       <c r="X34" t="n">
-        <v>439.608183718155</v>
+        <v>426.4958987135321</v>
       </c>
       <c r="Y34" t="n">
-        <v>339.3901112933113</v>
+        <v>326.2778262886884</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>244.0118386913449</v>
+        <v>318.9847563520747</v>
       </c>
       <c r="C35" t="n">
-        <v>244.0118386913449</v>
+        <v>129.3398455037407</v>
       </c>
       <c r="D35" t="n">
-        <v>244.0118386913449</v>
+        <v>129.3398455037407</v>
       </c>
       <c r="E35" t="n">
-        <v>244.0118386913449</v>
+        <v>129.3398455037407</v>
       </c>
       <c r="F35" t="n">
-        <v>244.0118386913449</v>
+        <v>129.3398455037407</v>
       </c>
       <c r="G35" t="n">
-        <v>244.0118386913449</v>
+        <v>129.3398455037407</v>
       </c>
       <c r="H35" t="n">
-        <v>17.90746629387928</v>
+        <v>129.3398455037407</v>
       </c>
       <c r="I35" t="n">
         <v>17.90746629387928</v>
@@ -6938,16 +6938,16 @@
         <v>17.90746629387928</v>
       </c>
       <c r="K35" t="n">
-        <v>53.61230820446275</v>
+        <v>120.9224722048016</v>
       </c>
       <c r="L35" t="n">
-        <v>233.6881597891213</v>
+        <v>300.9983237894602</v>
       </c>
       <c r="M35" t="n">
-        <v>450.6637870520255</v>
+        <v>517.9739510523643</v>
       </c>
       <c r="N35" t="n">
-        <v>656.5183092592648</v>
+        <v>723.8284732596037</v>
       </c>
       <c r="O35" t="n">
         <v>805.7132594019129</v>
@@ -6965,22 +6965,22 @@
         <v>895.3733146939638</v>
       </c>
       <c r="T35" t="n">
-        <v>895.3733146939638</v>
+        <v>771.193501147006</v>
       </c>
       <c r="U35" t="n">
-        <v>895.3733146939638</v>
+        <v>771.193501147006</v>
       </c>
       <c r="V35" t="n">
-        <v>696.2205834862762</v>
+        <v>545.0891287495404</v>
       </c>
       <c r="W35" t="n">
-        <v>470.1162110888105</v>
+        <v>545.0891287495404</v>
       </c>
       <c r="X35" t="n">
-        <v>244.0118386913449</v>
+        <v>545.0891287495404</v>
       </c>
       <c r="Y35" t="n">
-        <v>244.0118386913449</v>
+        <v>545.0891287495404</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>197.0237719003703</v>
+        <v>221.8821708383</v>
       </c>
       <c r="C36" t="n">
-        <v>123.7402720663575</v>
+        <v>148.5986710042872</v>
       </c>
       <c r="D36" t="n">
-        <v>75.97539185222051</v>
+        <v>100.8337907901502</v>
       </c>
       <c r="E36" t="n">
-        <v>17.90746629387928</v>
+        <v>100.8337907901502</v>
       </c>
       <c r="F36" t="n">
-        <v>17.90746629387928</v>
+        <v>55.46876226414949</v>
       </c>
       <c r="G36" t="n">
         <v>17.90746629387928</v>
@@ -7026,7 +7026,7 @@
         <v>586.4748171252288</v>
       </c>
       <c r="N36" t="n">
-        <v>808.0797125119849</v>
+        <v>604.3738607938784</v>
       </c>
       <c r="O36" t="n">
         <v>825.9787561806345</v>
@@ -7041,25 +7041,25 @@
         <v>895.3733146939638</v>
       </c>
       <c r="S36" t="n">
-        <v>895.3733146939638</v>
+        <v>823.125499591747</v>
       </c>
       <c r="T36" t="n">
-        <v>824.4010068588409</v>
+        <v>823.125499591747</v>
       </c>
       <c r="U36" t="n">
-        <v>697.3469180423442</v>
+        <v>696.0714107752503</v>
       </c>
       <c r="V36" t="n">
-        <v>563.3643392577158</v>
+        <v>562.0888319906219</v>
       </c>
       <c r="W36" t="n">
-        <v>410.2965119766284</v>
+        <v>502.2007184875119</v>
       </c>
       <c r="X36" t="n">
-        <v>303.6145412182099</v>
+        <v>395.5187477290934</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.0237719003703</v>
+        <v>288.9279784112538</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.90746629387928</v>
+        <v>180.3416477906894</v>
       </c>
       <c r="C37" t="n">
-        <v>17.90746629387928</v>
+        <v>112.5749943098968</v>
       </c>
       <c r="D37" t="n">
-        <v>17.90746629387928</v>
+        <v>63.62788434467535</v>
       </c>
       <c r="E37" t="n">
-        <v>17.90746629387928</v>
+        <v>63.62788434467535</v>
       </c>
       <c r="F37" t="n">
         <v>17.90746629387928</v>
@@ -7120,25 +7120,25 @@
         <v>743.2227689030206</v>
       </c>
       <c r="S37" t="n">
-        <v>743.2227689030206</v>
+        <v>618.1129063935972</v>
       </c>
       <c r="T37" t="n">
-        <v>674.5316984104192</v>
+        <v>489.0343657111342</v>
       </c>
       <c r="U37" t="n">
-        <v>486.4900870934013</v>
+        <v>300.9927543941163</v>
       </c>
       <c r="V37" t="n">
-        <v>332.9751283346287</v>
+        <v>300.9927543941163</v>
       </c>
       <c r="W37" t="n">
-        <v>144.7274877447823</v>
+        <v>300.9927543941163</v>
       </c>
       <c r="X37" t="n">
-        <v>17.90746629387928</v>
+        <v>180.3416477906894</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.90746629387928</v>
+        <v>180.3416477906894</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>669.2689422964982</v>
+        <v>696.2205834862762</v>
       </c>
       <c r="C38" t="n">
-        <v>669.2689422964982</v>
+        <v>696.2205834862762</v>
       </c>
       <c r="D38" t="n">
-        <v>443.1645698990325</v>
+        <v>470.1162110888105</v>
       </c>
       <c r="E38" t="n">
-        <v>217.0601975015669</v>
+        <v>470.1162110888105</v>
       </c>
       <c r="F38" t="n">
-        <v>217.0601975015669</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="G38" t="n">
-        <v>217.0601975015669</v>
+        <v>244.0118386913449</v>
       </c>
       <c r="H38" t="n">
-        <v>129.3398455037407</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="I38" t="n">
         <v>17.90746629387928</v>
@@ -7187,7 +7187,7 @@
         <v>723.8284732596037</v>
       </c>
       <c r="O38" t="n">
-        <v>873.0234234022518</v>
+        <v>805.7132594019129</v>
       </c>
       <c r="P38" t="n">
         <v>895.3733146939638</v>
@@ -7202,22 +7202,22 @@
         <v>895.3733146939638</v>
       </c>
       <c r="T38" t="n">
-        <v>895.3733146939638</v>
+        <v>771.193501147006</v>
       </c>
       <c r="U38" t="n">
-        <v>895.3733146939638</v>
+        <v>771.193501147006</v>
       </c>
       <c r="V38" t="n">
-        <v>895.3733146939638</v>
+        <v>771.193501147006</v>
       </c>
       <c r="W38" t="n">
-        <v>895.3733146939638</v>
+        <v>696.2205834862762</v>
       </c>
       <c r="X38" t="n">
-        <v>895.3733146939638</v>
+        <v>696.2205834862762</v>
       </c>
       <c r="Y38" t="n">
-        <v>895.3733146939638</v>
+        <v>696.2205834862762</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>94.73119943915677</v>
+        <v>292.1497025419476</v>
       </c>
       <c r="C39" t="n">
-        <v>21.44769960514402</v>
+        <v>218.8662027079349</v>
       </c>
       <c r="D39" t="n">
-        <v>21.44769960514402</v>
+        <v>171.1013224937979</v>
       </c>
       <c r="E39" t="n">
-        <v>21.44769960514402</v>
+        <v>113.0333969354566</v>
       </c>
       <c r="F39" t="n">
-        <v>21.44769960514402</v>
+        <v>67.66836840945588</v>
       </c>
       <c r="G39" t="n">
-        <v>21.44769960514402</v>
+        <v>30.10707243918567</v>
       </c>
       <c r="H39" t="n">
         <v>17.90746629387928</v>
@@ -7254,19 +7254,19 @@
         <v>17.90746629387928</v>
       </c>
       <c r="K39" t="n">
-        <v>143.2650263517167</v>
+        <v>17.90746629387928</v>
       </c>
       <c r="L39" t="n">
-        <v>364.8699217384727</v>
+        <v>200.1254877937716</v>
       </c>
       <c r="M39" t="n">
-        <v>586.4748171252288</v>
+        <v>421.7303831805276</v>
       </c>
       <c r="N39" t="n">
-        <v>808.0797125119849</v>
+        <v>421.7303831805276</v>
       </c>
       <c r="O39" t="n">
-        <v>825.9787561806345</v>
+        <v>643.3352785672837</v>
       </c>
       <c r="P39" t="n">
         <v>825.9787561806345</v>
@@ -7278,25 +7278,25 @@
         <v>895.3733146939638</v>
       </c>
       <c r="S39" t="n">
-        <v>823.125499591747</v>
+        <v>895.3733146939638</v>
       </c>
       <c r="T39" t="n">
-        <v>722.1084343976273</v>
+        <v>794.3562494998441</v>
       </c>
       <c r="U39" t="n">
-        <v>595.0543455811306</v>
+        <v>752.8366854984567</v>
       </c>
       <c r="V39" t="n">
-        <v>461.0717667965022</v>
+        <v>618.8541067138284</v>
       </c>
       <c r="W39" t="n">
-        <v>308.0039395154149</v>
+        <v>465.786279432741</v>
       </c>
       <c r="X39" t="n">
-        <v>201.3219687569964</v>
+        <v>465.786279432741</v>
       </c>
       <c r="Y39" t="n">
-        <v>94.73119943915677</v>
+        <v>359.1955101149014</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.67411977467191</v>
+        <v>148.3704211431532</v>
       </c>
       <c r="C40" t="n">
-        <v>17.90746629387928</v>
+        <v>80.60376766236054</v>
       </c>
       <c r="D40" t="n">
-        <v>17.90746629387928</v>
+        <v>80.60376766236054</v>
       </c>
       <c r="E40" t="n">
-        <v>17.90746629387928</v>
+        <v>80.60376766236054</v>
       </c>
       <c r="F40" t="n">
-        <v>17.90746629387928</v>
+        <v>80.60376766236054</v>
       </c>
       <c r="G40" t="n">
-        <v>17.90746629387928</v>
+        <v>80.60376766236054</v>
       </c>
       <c r="H40" t="n">
         <v>17.90746629387928</v>
@@ -7354,28 +7354,28 @@
         <v>743.2227689030206</v>
       </c>
       <c r="R40" t="n">
-        <v>743.2227689030206</v>
+        <v>665.3080646358222</v>
       </c>
       <c r="S40" t="n">
-        <v>743.2227689030206</v>
+        <v>540.1982021263989</v>
       </c>
       <c r="T40" t="n">
-        <v>614.1442282205576</v>
+        <v>411.1196614439359</v>
       </c>
       <c r="U40" t="n">
-        <v>614.1442282205576</v>
+        <v>223.078050126918</v>
       </c>
       <c r="V40" t="n">
-        <v>600.8437668949625</v>
+        <v>223.078050126918</v>
       </c>
       <c r="W40" t="n">
-        <v>412.5961263051162</v>
+        <v>223.078050126918</v>
       </c>
       <c r="X40" t="n">
-        <v>285.7761048542131</v>
+        <v>223.078050126918</v>
       </c>
       <c r="Y40" t="n">
-        <v>166.1530551577973</v>
+        <v>223.078050126918</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>532.7742498902787</v>
+        <v>467.340563731728</v>
       </c>
       <c r="C41" t="n">
-        <v>359.7506561353168</v>
+        <v>467.340563731728</v>
       </c>
       <c r="D41" t="n">
-        <v>359.7506561353168</v>
+        <v>467.340563731728</v>
       </c>
       <c r="E41" t="n">
-        <v>359.7506561353168</v>
+        <v>467.340563731728</v>
       </c>
       <c r="F41" t="n">
-        <v>359.7506561353168</v>
+        <v>301.3929472361548</v>
       </c>
       <c r="G41" t="n">
-        <v>186.7270623803549</v>
+        <v>301.3929472361548</v>
       </c>
       <c r="H41" t="n">
-        <v>13.70346862539298</v>
+        <v>135.4453307405816</v>
       </c>
       <c r="I41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="L41" t="n">
-        <v>183.2838928646311</v>
+        <v>93.00703803314821</v>
       </c>
       <c r="M41" t="n">
-        <v>352.8643171038693</v>
+        <v>255.6522969604595</v>
       </c>
       <c r="N41" t="n">
-        <v>522.4447413431074</v>
+        <v>418.2975558877707</v>
       </c>
       <c r="O41" t="n">
-        <v>671.6396914857554</v>
+        <v>567.4925060304188</v>
       </c>
       <c r="P41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R41" t="n">
-        <v>628.0926859923997</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S41" t="n">
-        <v>532.7742498902787</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="T41" t="n">
-        <v>532.7742498902787</v>
+        <v>633.2881802273012</v>
       </c>
       <c r="U41" t="n">
-        <v>532.7742498902787</v>
+        <v>633.2881802273012</v>
       </c>
       <c r="V41" t="n">
-        <v>532.7742498902787</v>
+        <v>633.2881802273012</v>
       </c>
       <c r="W41" t="n">
-        <v>532.7742498902787</v>
+        <v>633.2881802273012</v>
       </c>
       <c r="X41" t="n">
-        <v>532.7742498902787</v>
+        <v>467.340563731728</v>
       </c>
       <c r="Y41" t="n">
-        <v>532.7742498902787</v>
+        <v>467.340563731728</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.70346862539298</v>
+        <v>120.3659578143101</v>
       </c>
       <c r="C42" t="n">
-        <v>13.70346862539298</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="D42" t="n">
-        <v>13.70346862539298</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="E42" t="n">
-        <v>13.70346862539298</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="F42" t="n">
-        <v>13.70346862539298</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="G42" t="n">
-        <v>13.70346862539298</v>
+        <v>36.21255767602656</v>
       </c>
       <c r="H42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K42" t="n">
-        <v>13.70346862539298</v>
+        <v>138.5006112842868</v>
       </c>
       <c r="L42" t="n">
-        <v>13.70346862539298</v>
+        <v>301.1458702115981</v>
       </c>
       <c r="M42" t="n">
-        <v>107.0376000386053</v>
+        <v>463.7911291389094</v>
       </c>
       <c r="N42" t="n">
-        <v>276.6180242778435</v>
+        <v>626.4363880662206</v>
       </c>
       <c r="O42" t="n">
-        <v>446.1984485170816</v>
+        <v>626.4363880662206</v>
       </c>
       <c r="P42" t="n">
-        <v>615.7788727563197</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q42" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R42" t="n">
-        <v>678.3061039605881</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S42" t="n">
-        <v>678.3061039605881</v>
+        <v>624.5325419879023</v>
       </c>
       <c r="T42" t="n">
-        <v>570.4217114574075</v>
+        <v>624.5325419879023</v>
       </c>
       <c r="U42" t="n">
-        <v>436.5002953318498</v>
+        <v>624.5325419879023</v>
       </c>
       <c r="V42" t="n">
-        <v>295.6503892381604</v>
+        <v>479.6800628990031</v>
       </c>
       <c r="W42" t="n">
-        <v>135.7152346480121</v>
+        <v>315.742335313645</v>
       </c>
       <c r="X42" t="n">
-        <v>127.1615652522936</v>
+        <v>315.742335313645</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.70346862539298</v>
+        <v>198.2816656915346</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.9855769095872</v>
+        <v>236.8211072912667</v>
       </c>
       <c r="C43" t="n">
-        <v>145.9855769095872</v>
+        <v>236.8211072912667</v>
       </c>
       <c r="D43" t="n">
-        <v>145.9855769095872</v>
+        <v>236.8211072912667</v>
       </c>
       <c r="E43" t="n">
-        <v>145.9855769095872</v>
+        <v>236.8211072912667</v>
       </c>
       <c r="F43" t="n">
-        <v>145.9855769095872</v>
+        <v>236.8211072912667</v>
       </c>
       <c r="G43" t="n">
-        <v>145.9855769095872</v>
+        <v>157.432878496273</v>
       </c>
       <c r="H43" t="n">
-        <v>76.42194823204501</v>
+        <v>83.86667682352102</v>
       </c>
       <c r="I43" t="n">
-        <v>13.70346862539298</v>
+        <v>17.14562422165919</v>
       </c>
       <c r="J43" t="n">
-        <v>13.70346862539297</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K43" t="n">
-        <v>84.08226003327491</v>
+        <v>79.59892084172634</v>
       </c>
       <c r="L43" t="n">
-        <v>203.8219733564939</v>
+        <v>195.4157123723402</v>
       </c>
       <c r="M43" t="n">
-        <v>335.4355998642221</v>
+        <v>323.1064170874633</v>
       </c>
       <c r="N43" t="n">
-        <v>471.5520388351645</v>
+        <v>455.2999342658006</v>
       </c>
       <c r="O43" t="n">
-        <v>588.3169037855698</v>
+        <v>568.1418774236008</v>
       </c>
       <c r="P43" t="n">
-        <v>678.0482657733205</v>
+        <v>653.9503176187462</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R43" t="n">
-        <v>600.3913996933898</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S43" t="n">
-        <v>532.8458103622122</v>
+        <v>521.1727985087756</v>
       </c>
       <c r="T43" t="n">
-        <v>532.8458103622122</v>
+        <v>494.1175594742361</v>
       </c>
       <c r="U43" t="n">
-        <v>532.8458103622122</v>
+        <v>494.1175594742361</v>
       </c>
       <c r="V43" t="n">
-        <v>532.8458103622122</v>
+        <v>494.1175594742361</v>
       </c>
       <c r="W43" t="n">
-        <v>359.8222166072504</v>
+        <v>328.1699429786629</v>
       </c>
       <c r="X43" t="n">
-        <v>359.8222166072504</v>
+        <v>328.1699429786629</v>
       </c>
       <c r="Y43" t="n">
-        <v>233.3318396017736</v>
+        <v>328.1699429786629</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C44" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D44" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E44" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F44" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G44" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H44" t="n">
-        <v>42.14590365206637</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I44" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J44" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K44" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L44" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M44" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N44" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O44" t="n">
         <v>83.04597603355158</v>
@@ -7670,7 +7670,7 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R44" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S44" t="n">
         <v>82.49138865710684</v>
@@ -7691,7 +7691,7 @@
         <v>54.62267627294912</v>
       </c>
       <c r="Y44" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C45" t="n">
         <v>54.62267627294912</v>
       </c>
       <c r="D45" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E45" t="n">
         <v>26.7539638887914</v>
       </c>
       <c r="F45" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G45" t="n">
         <v>2.207202020825291</v>
@@ -7734,16 +7734,16 @@
         <v>28.41772601812563</v>
       </c>
       <c r="M45" t="n">
+        <v>28.41772601812563</v>
+      </c>
+      <c r="N45" t="n">
         <v>55.73185102583861</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>83.04597603355158</v>
       </c>
-      <c r="O45" t="n">
-        <v>110.3601010412646</v>
-      </c>
       <c r="P45" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3601010412646</v>
@@ -7764,13 +7764,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="W45" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X45" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y45" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C46" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="D46" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="E46" t="n">
-        <v>80.62014129470579</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="F46" t="n">
         <v>57.94462678914073</v>
       </c>
       <c r="G46" t="n">
+        <v>57.94462678914073</v>
+      </c>
+      <c r="H46" t="n">
+        <v>57.94462678914073</v>
+      </c>
+      <c r="I46" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="J46" t="n">
         <v>2.207202020825291</v>
@@ -7840,16 +7840,16 @@
         <v>108.4888536788635</v>
       </c>
       <c r="V46" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W46" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X46" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.62014129470579</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
   </sheetData>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>270.5165907553591</v>
+        <v>279.6450393878541</v>
       </c>
       <c r="L17" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>282.8962040833514</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>288.9682519394644</v>
       </c>
       <c r="O17" t="n">
-        <v>282.6481822777654</v>
+        <v>289.6533997645603</v>
       </c>
       <c r="P17" t="n">
-        <v>283.7829666113482</v>
+        <v>288.3819138620673</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>198.1095681227477</v>
       </c>
       <c r="M18" t="n">
-        <v>192.5607736323969</v>
+        <v>201.6892222648918</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>190.8969004262068</v>
       </c>
       <c r="O18" t="n">
-        <v>195.1462153005231</v>
+        <v>199.7451625512423</v>
       </c>
       <c r="P18" t="n">
-        <v>186.5243782704089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>192.5317449421002</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>272.070262049276</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>388.0142352285299</v>
+        <v>426.5995366404476</v>
       </c>
       <c r="N20" t="n">
         <v>425.6663670097657</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>334.807683193049</v>
@@ -9489,16 +9489,16 @@
         <v>338.3873373351931</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>327.5950154965082</v>
       </c>
       <c r="O21" t="n">
-        <v>330.4541131822147</v>
+        <v>330.920121457087</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>349.6711499036435</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>253.8086435246757</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>195.9891893173034</v>
+        <v>168.8651723318595</v>
       </c>
       <c r="M24" t="n">
         <v>365.9773625955092</v>
@@ -9729,13 +9729,13 @@
         <v>355.1850407568243</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>366.4395731179354</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10115,10 +10115,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>349.6711499036435</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>381.5234688460256</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>156.6342218694192</v>
+        <v>322.6129873555229</v>
       </c>
       <c r="M30" t="n">
-        <v>365.9773625955092</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>355.1850407568243</v>
@@ -10206,7 +10206,7 @@
         <v>366.4395731179354</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>256.1553479243578</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>312.8101166159384</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>362.3977084533651</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>365.9773625955092</v>
       </c>
       <c r="N33" t="n">
-        <v>355.1850407568243</v>
+        <v>188.7765216207625</v>
       </c>
       <c r="O33" t="n">
-        <v>160.6760865339895</v>
+        <v>366.4395731179354</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>256.1553479243578</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>312.8101166159384</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10674,10 +10674,10 @@
         <v>365.9773625955092</v>
       </c>
       <c r="N36" t="n">
-        <v>355.1850407568243</v>
+        <v>149.4215541728784</v>
       </c>
       <c r="O36" t="n">
-        <v>160.6760865339895</v>
+        <v>366.4395731179354</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10835,10 +10835,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>312.8101166159384</v>
       </c>
       <c r="P38" t="n">
-        <v>253.8086435246757</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>362.3977084533651</v>
+        <v>322.6129873555229</v>
       </c>
       <c r="M39" t="n">
         <v>365.9773625955092</v>
       </c>
       <c r="N39" t="n">
-        <v>355.1850407568243</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>160.6760865339895</v>
+        <v>366.4395731179354</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,19 +11063,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>407.0597727873995</v>
+        <v>316.4371087141275</v>
       </c>
       <c r="M41" t="n">
-        <v>401.639591044685</v>
+        <v>394.6343735578902</v>
       </c>
       <c r="N41" t="n">
-        <v>400.7064214140032</v>
+        <v>393.7012039272083</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>244.9034399814248</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>302.8425201104916</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4109343394045</v>
+        <v>306.4221742526357</v>
       </c>
       <c r="N42" t="n">
-        <v>302.6350699007456</v>
+        <v>295.6298524139507</v>
       </c>
       <c r="O42" t="n">
-        <v>313.8896022618567</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>305.2677652317425</v>
+        <v>165.0008450469051</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,19 +11297,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N44" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O44" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>258.8230210155857</v>
@@ -11382,7 +11382,7 @@
         <v>165.029656544824</v>
       </c>
       <c r="M45" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>158.9317373436494</v>
@@ -11394,7 +11394,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>342.5211784268487</v>
+        <v>342.9965156646928</v>
       </c>
       <c r="C14" t="n">
-        <v>325.0602285343757</v>
+        <v>325.5355657722198</v>
       </c>
       <c r="D14" t="n">
-        <v>314.4703783840511</v>
+        <v>314.9457156218952</v>
       </c>
       <c r="E14" t="n">
-        <v>341.7177068356299</v>
+        <v>342.193044073474</v>
       </c>
       <c r="F14" t="n">
-        <v>366.6633825050795</v>
+        <v>367.1387197429237</v>
       </c>
       <c r="G14" t="n">
-        <v>375.0900742785032</v>
+        <v>375.5654115163473</v>
       </c>
       <c r="H14" t="n">
-        <v>299.2621388791353</v>
+        <v>299.7374761169794</v>
       </c>
       <c r="I14" t="n">
-        <v>170.263226333774</v>
+        <v>170.7385635716182</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>109.6564547045178</v>
+        <v>110.1317919423619</v>
       </c>
       <c r="S14" t="n">
-        <v>168.8074063496134</v>
+        <v>169.2827435874576</v>
       </c>
       <c r="T14" t="n">
-        <v>182.8831863274995</v>
+        <v>183.3585235653436</v>
       </c>
       <c r="U14" t="n">
-        <v>211.1329896712046</v>
+        <v>211.6083269090487</v>
       </c>
       <c r="V14" t="n">
-        <v>287.539595233503</v>
+        <v>288.0149324713472</v>
       </c>
       <c r="W14" t="n">
-        <v>309.0283054807811</v>
+        <v>309.5036427186253</v>
       </c>
       <c r="X14" t="n">
-        <v>329.5184374418371</v>
+        <v>329.9937746796813</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.0252754194217</v>
+        <v>346.5006126572658</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>126.3205204132354</v>
+        <v>126.7958576510796</v>
       </c>
       <c r="C15" t="n">
-        <v>132.4958357516838</v>
+        <v>132.971172989528</v>
       </c>
       <c r="D15" t="n">
-        <v>107.2324023280069</v>
+        <v>107.707739565851</v>
       </c>
       <c r="E15" t="n">
-        <v>117.432417218769</v>
+        <v>117.9077544566132</v>
       </c>
       <c r="F15" t="n">
-        <v>104.856549156752</v>
+        <v>105.3318863945961</v>
       </c>
       <c r="G15" t="n">
-        <v>97.13085392657874</v>
+        <v>97.60619116442288</v>
       </c>
       <c r="H15" t="n">
-        <v>72.02278099986457</v>
+        <v>72.49811823770872</v>
       </c>
       <c r="I15" t="n">
-        <v>49.18396961478318</v>
+        <v>49.65930685262733</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.94517091601124</v>
+        <v>60.42050815385539</v>
       </c>
       <c r="S15" t="n">
-        <v>131.4705078672059</v>
+        <v>131.9458451050501</v>
       </c>
       <c r="T15" t="n">
-        <v>159.9520654581897</v>
+        <v>160.4274026960339</v>
       </c>
       <c r="U15" t="n">
-        <v>185.7287188443429</v>
+        <v>186.2040560821871</v>
       </c>
       <c r="V15" t="n">
-        <v>192.5879239127934</v>
+        <v>193.0632611506375</v>
       </c>
       <c r="W15" t="n">
-        <v>211.4823199242877</v>
+        <v>211.9576571621319</v>
       </c>
       <c r="X15" t="n">
-        <v>165.5603219668456</v>
+        <v>166.0356592046897</v>
       </c>
       <c r="Y15" t="n">
-        <v>165.4700325406725</v>
+        <v>165.9453697785166</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.6193169453054</v>
+        <v>140.0946541831495</v>
       </c>
       <c r="C16" t="n">
-        <v>127.0341578619959</v>
+        <v>127.5094950998401</v>
       </c>
       <c r="D16" t="n">
-        <v>108.4028097815805</v>
+        <v>108.8781470194246</v>
       </c>
       <c r="E16" t="n">
-        <v>106.2212994099373</v>
+        <v>106.6966366477814</v>
       </c>
       <c r="F16" t="n">
-        <v>105.2083847862993</v>
+        <v>105.6837220241435</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7783161218269</v>
+        <v>128.253653359671</v>
       </c>
       <c r="H16" t="n">
-        <v>122.0145092708077</v>
+        <v>122.4898465086518</v>
       </c>
       <c r="I16" t="n">
-        <v>115.2378116906264</v>
+        <v>115.7131489284705</v>
       </c>
       <c r="J16" t="n">
-        <v>53.14651688004088</v>
+        <v>53.62185411788503</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.94938001506249</v>
+        <v>46.42471725290664</v>
       </c>
       <c r="R16" t="n">
-        <v>137.0807281405376</v>
+        <v>137.5560653783817</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8039348003404</v>
+        <v>184.2792720381845</v>
       </c>
       <c r="T16" t="n">
-        <v>187.7329261916496</v>
+        <v>188.2082634294937</v>
       </c>
       <c r="U16" t="n">
-        <v>246.106366119859</v>
+        <v>246.5817033577031</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9249800871961</v>
+        <v>212.4003173250402</v>
       </c>
       <c r="W16" t="n">
-        <v>246.3103350999591</v>
+        <v>246.7856723378032</v>
       </c>
       <c r="X16" t="n">
-        <v>185.4969921524053</v>
+        <v>185.9723293902494</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3719901154629</v>
+        <v>178.847327353307</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>342.5211784268487</v>
+        <v>342.9965156646928</v>
       </c>
       <c r="C17" t="n">
-        <v>325.0602285343757</v>
+        <v>325.5355657722198</v>
       </c>
       <c r="D17" t="n">
-        <v>314.4703783840511</v>
+        <v>314.9457156218952</v>
       </c>
       <c r="E17" t="n">
-        <v>341.7177068356299</v>
+        <v>342.193044073474</v>
       </c>
       <c r="F17" t="n">
-        <v>366.6633825050795</v>
+        <v>367.1387197429237</v>
       </c>
       <c r="G17" t="n">
-        <v>375.0900742785032</v>
+        <v>375.5654115163473</v>
       </c>
       <c r="H17" t="n">
-        <v>299.2621388791353</v>
+        <v>299.7374761169794</v>
       </c>
       <c r="I17" t="n">
-        <v>170.263226333774</v>
+        <v>170.7385635716182</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.1064838484391</v>
+        <v>110.1317919423619</v>
       </c>
       <c r="S17" t="n">
-        <v>116.2574354935348</v>
+        <v>109.7275552445841</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3332154714208</v>
+        <v>123.8033352224701</v>
       </c>
       <c r="U17" t="n">
-        <v>164.8469753411705</v>
+        <v>159.1521170166457</v>
       </c>
       <c r="V17" t="n">
-        <v>287.539595233503</v>
+        <v>228.4597441284736</v>
       </c>
       <c r="W17" t="n">
-        <v>309.0283054807811</v>
+        <v>309.5036427186253</v>
       </c>
       <c r="X17" t="n">
-        <v>329.5184374418371</v>
+        <v>329.9937746796813</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.0252754194217</v>
+        <v>346.5006126572658</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73.77054955715676</v>
+        <v>126.7958576510796</v>
       </c>
       <c r="C18" t="n">
-        <v>132.4958357516838</v>
+        <v>132.971172989528</v>
       </c>
       <c r="D18" t="n">
-        <v>54.68243147192817</v>
+        <v>107.707739565851</v>
       </c>
       <c r="E18" t="n">
-        <v>117.432417218769</v>
+        <v>117.9077544566132</v>
       </c>
       <c r="F18" t="n">
-        <v>104.856549156752</v>
+        <v>105.3318863945961</v>
       </c>
       <c r="G18" t="n">
-        <v>50.84483959654465</v>
+        <v>97.60619116442288</v>
       </c>
       <c r="H18" t="n">
-        <v>72.02278099986457</v>
+        <v>72.49811823770872</v>
       </c>
       <c r="I18" t="n">
-        <v>49.18396961478318</v>
+        <v>49.65930685262733</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.94517091601124</v>
+        <v>60.42050815385539</v>
       </c>
       <c r="S18" t="n">
-        <v>131.4705078672059</v>
+        <v>72.39065676217655</v>
       </c>
       <c r="T18" t="n">
-        <v>159.9520654581897</v>
+        <v>100.8722143531603</v>
       </c>
       <c r="U18" t="n">
-        <v>185.7287188443429</v>
+        <v>133.7478461897841</v>
       </c>
       <c r="V18" t="n">
-        <v>140.0379530567147</v>
+        <v>133.508072807764</v>
       </c>
       <c r="W18" t="n">
-        <v>211.4823199242877</v>
+        <v>211.9576571621319</v>
       </c>
       <c r="X18" t="n">
-        <v>165.5603219668456</v>
+        <v>166.0356592046897</v>
       </c>
       <c r="Y18" t="n">
-        <v>165.4700325406725</v>
+        <v>165.9453697785166</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.6193169453054</v>
+        <v>80.53946584027602</v>
       </c>
       <c r="C19" t="n">
-        <v>127.0341578619959</v>
+        <v>67.95430675696656</v>
       </c>
       <c r="D19" t="n">
-        <v>108.4028097815805</v>
+        <v>108.8781470194246</v>
       </c>
       <c r="E19" t="n">
-        <v>106.2212994099373</v>
+        <v>106.6966366477814</v>
       </c>
       <c r="F19" t="n">
-        <v>105.2083847862993</v>
+        <v>99.65222938464717</v>
       </c>
       <c r="G19" t="n">
-        <v>127.7783161218269</v>
+        <v>128.253653359671</v>
       </c>
       <c r="H19" t="n">
-        <v>122.0145092708077</v>
+        <v>122.4898465086518</v>
       </c>
       <c r="I19" t="n">
-        <v>115.2378116906264</v>
+        <v>115.7131489284705</v>
       </c>
       <c r="J19" t="n">
-        <v>52.80988256506927</v>
+        <v>53.62185411788503</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.5307572844589</v>
+        <v>78.00087703550821</v>
       </c>
       <c r="S19" t="n">
-        <v>183.8039348003404</v>
+        <v>184.2792720381845</v>
       </c>
       <c r="T19" t="n">
-        <v>187.7329261916496</v>
+        <v>188.2082634294937</v>
       </c>
       <c r="U19" t="n">
-        <v>246.106366119859</v>
+        <v>246.5817033577031</v>
       </c>
       <c r="V19" t="n">
-        <v>211.9249800871961</v>
+        <v>212.4003173250402</v>
       </c>
       <c r="W19" t="n">
-        <v>193.7603642438804</v>
+        <v>246.7856723378032</v>
       </c>
       <c r="X19" t="n">
-        <v>132.9470212963266</v>
+        <v>185.9723293902494</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.3719901154629</v>
+        <v>178.847327353307</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.3102509279922</v>
+        <v>323.7855881658364</v>
       </c>
       <c r="C20" t="n">
-        <v>305.8493010355192</v>
+        <v>306.3246382733633</v>
       </c>
       <c r="D20" t="n">
-        <v>295.2594508851946</v>
+        <v>295.7347881230388</v>
       </c>
       <c r="E20" t="n">
-        <v>126.2534759235986</v>
+        <v>322.9821165746176</v>
       </c>
       <c r="F20" t="n">
-        <v>151.1991515930483</v>
+        <v>347.9277922440672</v>
       </c>
       <c r="G20" t="n">
-        <v>355.8791467796467</v>
+        <v>356.3544840174908</v>
       </c>
       <c r="H20" t="n">
-        <v>280.0512113802788</v>
+        <v>280.5265486181229</v>
       </c>
       <c r="I20" t="n">
-        <v>151.0522988349176</v>
+        <v>151.5276360727617</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>90.44552720566132</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>149.596478850757</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>163.672258828643</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>191.9220621723481</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>268.3286677346466</v>
+        <v>268.8040049724907</v>
       </c>
       <c r="W20" t="n">
-        <v>289.8173779819247</v>
+        <v>126.2105713427062</v>
       </c>
       <c r="X20" t="n">
-        <v>137.4476002966563</v>
+        <v>310.7828471808248</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.5610445073904</v>
+        <v>327.2896851584094</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.22674339316801</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>113.2849082528274</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>88.49681206699455</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>98.69682695775674</v>
       </c>
       <c r="F21" t="n">
-        <v>85.64562165789552</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>78.39526366556643</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.27263734334328</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.73424341715477</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>112.2595803683495</v>
+        <v>112.7349176061936</v>
       </c>
       <c r="T21" t="n">
-        <v>140.7411379593332</v>
+        <v>141.2164751971774</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>166.9931285833306</v>
       </c>
       <c r="V21" t="n">
-        <v>173.3769964139369</v>
+        <v>173.8523336517811</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>146.3493944679891</v>
+        <v>146.8247317058333</v>
       </c>
       <c r="Y21" t="n">
-        <v>146.259105041816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,28 +24127,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>95.53902481828854</v>
+        <v>108.2985676009836</v>
       </c>
       <c r="D22" t="n">
-        <v>89.19188228272399</v>
+        <v>89.66721952056815</v>
       </c>
       <c r="E22" t="n">
-        <v>87.01037191108081</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>85.99745728744288</v>
+        <v>86.47279452528704</v>
       </c>
       <c r="G22" t="n">
-        <v>108.5673886229704</v>
+        <v>109.0427258608146</v>
       </c>
       <c r="H22" t="n">
-        <v>102.8035817719512</v>
+        <v>103.2789190097954</v>
       </c>
       <c r="I22" t="n">
-        <v>96.02688419176992</v>
+        <v>96.50222142961408</v>
       </c>
       <c r="J22" t="n">
-        <v>33.93558938118441</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.73845251620602</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>117.8698006416811</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>164.5930073014839</v>
+        <v>165.0683445393281</v>
       </c>
       <c r="T22" t="n">
-        <v>168.5219986927931</v>
+        <v>168.9973359306373</v>
       </c>
       <c r="U22" t="n">
-        <v>226.8954386210025</v>
+        <v>227.3707758588467</v>
       </c>
       <c r="V22" t="n">
-        <v>192.7140525883397</v>
+        <v>193.1893898261838</v>
       </c>
       <c r="W22" t="n">
-        <v>227.0994076011027</v>
+        <v>227.5747448389468</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>166.7614018913929</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.6312358396839</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.3102509279922</v>
+        <v>126.6243842702256</v>
       </c>
       <c r="C23" t="n">
-        <v>305.8493010355192</v>
+        <v>306.3246382733633</v>
       </c>
       <c r="D23" t="n">
-        <v>295.2594508851946</v>
+        <v>295.7347881230388</v>
       </c>
       <c r="E23" t="n">
-        <v>322.5067793367734</v>
+        <v>322.9821165746176</v>
       </c>
       <c r="F23" t="n">
-        <v>347.4524550062231</v>
+        <v>347.9277922440672</v>
       </c>
       <c r="G23" t="n">
-        <v>355.8791467796467</v>
+        <v>356.3544840174908</v>
       </c>
       <c r="H23" t="n">
-        <v>280.0512113802788</v>
+        <v>280.5265486181229</v>
       </c>
       <c r="I23" t="n">
-        <v>151.0522988349176</v>
+        <v>151.5276360727617</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>90.44552720566132</v>
+        <v>90.92086444350548</v>
       </c>
       <c r="S23" t="n">
-        <v>149.596478850757</v>
+        <v>150.0718160886011</v>
       </c>
       <c r="T23" t="n">
-        <v>163.672258828643</v>
+        <v>164.1475960664872</v>
       </c>
       <c r="U23" t="n">
-        <v>191.9220621723481</v>
+        <v>192.3973994101923</v>
       </c>
       <c r="V23" t="n">
-        <v>44.4853390611556</v>
+        <v>268.8040049724907</v>
       </c>
       <c r="W23" t="n">
-        <v>92.65617408631394</v>
+        <v>66.44938654627785</v>
       </c>
       <c r="X23" t="n">
-        <v>86.46418126948973</v>
+        <v>86.93951850733387</v>
       </c>
       <c r="Y23" t="n">
-        <v>102.9710192470743</v>
+        <v>103.4463564849184</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>107.109592914379</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>113.2849082528274</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>70.29174513423348</v>
+        <v>88.49681206699455</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>98.69682695775674</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>86.12095889573968</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>53.28719073885227</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>30.44837935377088</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.73424341715477</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>112.2595803683495</v>
+        <v>112.7349176061936</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>141.2164751971774</v>
       </c>
       <c r="U24" t="n">
-        <v>166.5177913454864</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>106.6634662679815</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>192.7467296632754</v>
       </c>
       <c r="X24" t="n">
-        <v>146.3493944679891</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>146.259105041816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.4083894464489</v>
+        <v>49.01900111164576</v>
       </c>
       <c r="C25" t="n">
-        <v>107.8232303631395</v>
+        <v>108.2985676009836</v>
       </c>
       <c r="D25" t="n">
-        <v>89.19188228272399</v>
+        <v>89.66721952056815</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>87.48570914892497</v>
       </c>
       <c r="F25" t="n">
-        <v>44.32133067854379</v>
+        <v>86.47279452528704</v>
       </c>
       <c r="G25" t="n">
-        <v>108.5673886229704</v>
+        <v>109.0427258608146</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>103.2789190097954</v>
       </c>
       <c r="I25" t="n">
-        <v>96.02688419176992</v>
+        <v>96.50222142961408</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.41092661902858</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.73845251620602</v>
+        <v>27.21378975405019</v>
       </c>
       <c r="R25" t="n">
-        <v>117.8698006416811</v>
+        <v>118.3451378795253</v>
       </c>
       <c r="S25" t="n">
-        <v>164.5930073014839</v>
+        <v>165.0683445393281</v>
       </c>
       <c r="T25" t="n">
-        <v>168.5219986927931</v>
+        <v>168.9973359306373</v>
       </c>
       <c r="U25" t="n">
-        <v>226.8954386210025</v>
+        <v>227.3707758588467</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>193.1893898261838</v>
       </c>
       <c r="W25" t="n">
-        <v>227.0994076011027</v>
+        <v>3.73141616545584</v>
       </c>
       <c r="X25" t="n">
-        <v>166.2860646535488</v>
+        <v>166.7614018913929</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.1610626166064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>326.5022961065666</v>
+        <v>216.0042445403645</v>
       </c>
       <c r="C26" t="n">
-        <v>85.19801754060271</v>
+        <v>305.5541361866801</v>
       </c>
       <c r="D26" t="n">
-        <v>74.60816739027806</v>
+        <v>71.12095736286457</v>
       </c>
       <c r="E26" t="n">
-        <v>101.8554958418569</v>
+        <v>322.2116144879344</v>
       </c>
       <c r="F26" t="n">
-        <v>153.4832962891868</v>
+        <v>347.157290157384</v>
       </c>
       <c r="G26" t="n">
-        <v>359.0711919582211</v>
+        <v>355.5839819308076</v>
       </c>
       <c r="H26" t="n">
-        <v>283.2432565588532</v>
+        <v>55.91271785794876</v>
       </c>
       <c r="I26" t="n">
-        <v>154.244344013492</v>
+        <v>150.7571339860785</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.63757238423577</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>152.7885240293314</v>
+        <v>149.3013140019179</v>
       </c>
       <c r="T26" t="n">
-        <v>166.8643040072174</v>
+        <v>163.3770939798039</v>
       </c>
       <c r="U26" t="n">
-        <v>195.1141073509226</v>
+        <v>191.626897323509</v>
       </c>
       <c r="V26" t="n">
-        <v>271.520712913221</v>
+        <v>268.0335028858075</v>
       </c>
       <c r="W26" t="n">
-        <v>293.0094231604991</v>
+        <v>289.5222131330856</v>
       </c>
       <c r="X26" t="n">
-        <v>313.4995551215551</v>
+        <v>86.16901642065065</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.0063930991397</v>
+        <v>326.5191830717262</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.3016380929534</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>116.4769534314018</v>
+        <v>112.9897434039883</v>
       </c>
       <c r="D27" t="n">
-        <v>91.21352000772484</v>
+        <v>87.7263099803113</v>
       </c>
       <c r="E27" t="n">
-        <v>101.413534898487</v>
+        <v>97.92632487107349</v>
       </c>
       <c r="F27" t="n">
-        <v>54.59329849578728</v>
+        <v>54.83947227090492</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>43.92628859572922</v>
+        <v>40.43907856831569</v>
       </c>
       <c r="S27" t="n">
-        <v>115.4516255469239</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>143.9331831379077</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>166.2226264966474</v>
       </c>
       <c r="V27" t="n">
-        <v>176.5690415925114</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>191.9762275765922</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>145.9639401929769</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.6004346250234</v>
+        <v>120.1132245976098</v>
       </c>
       <c r="C28" t="n">
-        <v>111.0152755417139</v>
+        <v>71.96734511322694</v>
       </c>
       <c r="D28" t="n">
-        <v>92.38392746129844</v>
+        <v>88.8967174338849</v>
       </c>
       <c r="E28" t="n">
-        <v>90.20241708965526</v>
+        <v>86.71520706224172</v>
       </c>
       <c r="F28" t="n">
-        <v>89.18950246601733</v>
+        <v>85.70229243860379</v>
       </c>
       <c r="G28" t="n">
-        <v>111.7594338015448</v>
+        <v>108.2722237741313</v>
       </c>
       <c r="H28" t="n">
-        <v>105.9956269505257</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.21892937034437</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>37.12763455975886</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.93049769478047</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>121.0618458202556</v>
+        <v>117.574635792842</v>
       </c>
       <c r="S28" t="n">
-        <v>167.7850524800583</v>
+        <v>164.2978424526448</v>
       </c>
       <c r="T28" t="n">
-        <v>171.7140438713676</v>
+        <v>168.226833843954</v>
       </c>
       <c r="U28" t="n">
-        <v>230.087483799577</v>
+        <v>226.6002737721634</v>
       </c>
       <c r="V28" t="n">
-        <v>149.858954888198</v>
+        <v>192.4188877395005</v>
       </c>
       <c r="W28" t="n">
-        <v>6.448124106186128</v>
+        <v>226.8042427522635</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.3531077951809</v>
+        <v>158.8658977677673</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39.52175133849002</v>
+        <v>263.365080011981</v>
       </c>
       <c r="C29" t="n">
         <v>245.904130119508</v>
@@ -24692,13 +24692,13 @@
         <v>287.5072840902118</v>
       </c>
       <c r="G29" t="n">
-        <v>295.9339758636355</v>
+        <v>72.09064719014449</v>
       </c>
       <c r="H29" t="n">
         <v>220.1060404642676</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>91.10712791890633</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>30.5003562896501</v>
       </c>
       <c r="S29" t="n">
-        <v>10.49840688831338</v>
+        <v>89.65130793474576</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>103.7270879126318</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>131.9768912563369</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>208.3834968186353</v>
       </c>
       <c r="W29" t="n">
-        <v>229.8722070659134</v>
+        <v>6.028878392422456</v>
       </c>
       <c r="X29" t="n">
-        <v>250.3623390269694</v>
+        <v>26.51901035347848</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.869177004554</v>
+        <v>69.70797310894326</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.12111636410303</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.87805944712824</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>29.24671136671276</v>
+        <v>29.24671136671277</v>
       </c>
       <c r="E31" t="n">
-        <v>27.06520099506957</v>
+        <v>27.06520099506959</v>
       </c>
       <c r="F31" t="n">
-        <v>26.05228637143165</v>
+        <v>26.05228637143166</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>48.62221770695918</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>42.85841085593999</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>36.0817132757587</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>104.6478363854727</v>
       </c>
       <c r="T31" t="n">
-        <v>108.5768277767819</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>78.581717064478</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.21589170059519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>39.52175133849002</v>
       </c>
       <c r="C32" t="n">
-        <v>245.904130119508</v>
+        <v>48.74292622389723</v>
       </c>
       <c r="D32" t="n">
         <v>235.3142799691834</v>
@@ -24926,16 +24926,16 @@
         <v>262.5616084207622</v>
       </c>
       <c r="F32" t="n">
-        <v>63.66395541672088</v>
+        <v>287.5072840902118</v>
       </c>
       <c r="G32" t="n">
-        <v>72.09064719014449</v>
+        <v>295.9339758636355</v>
       </c>
       <c r="H32" t="n">
         <v>220.1060404642676</v>
       </c>
       <c r="I32" t="n">
-        <v>91.10712791890631</v>
+        <v>91.10712791890633</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>30.50035628965009</v>
+        <v>30.5003562896501</v>
       </c>
       <c r="S32" t="n">
-        <v>89.65130793474574</v>
+        <v>89.65130793474576</v>
       </c>
       <c r="T32" t="n">
         <v>103.7270879126318</v>
@@ -24977,13 +24977,13 @@
         <v>208.3834968186353</v>
       </c>
       <c r="W32" t="n">
-        <v>32.71100317030263</v>
+        <v>6.028878392422456</v>
       </c>
       <c r="X32" t="n">
         <v>250.3623390269694</v>
       </c>
       <c r="Y32" t="n">
-        <v>266.869177004554</v>
+        <v>43.02584833106303</v>
       </c>
     </row>
     <row r="33">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>12.98116215457685</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>59.05158963173966</v>
+        <v>104.6478363854727</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>108.5768277767819</v>
       </c>
       <c r="U34" t="n">
         <v>166.9502677049913</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>167.1542366850914</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>282.5760075108374</v>
+        <v>58.73267883734647</v>
       </c>
       <c r="C35" t="n">
-        <v>265.1150576183644</v>
+        <v>77.36659587851369</v>
       </c>
       <c r="D35" t="n">
         <v>254.5252074680398</v>
@@ -25169,10 +25169,10 @@
         <v>315.1449033624919</v>
       </c>
       <c r="H35" t="n">
-        <v>15.47363928963304</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I35" t="n">
-        <v>110.3180554177628</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,19 +25205,19 @@
         <v>108.8622354336022</v>
       </c>
       <c r="T35" t="n">
-        <v>122.9380154114882</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
-        <v>30.43322042188097</v>
+        <v>3.751095644000799</v>
       </c>
       <c r="W35" t="n">
-        <v>25.23980589127891</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X35" t="n">
-        <v>45.72993785233493</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y35" t="n">
         <v>286.0801045034104</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25239,13 +25239,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F36" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>12.07761008385333</v>
@@ -25281,10 +25281,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.74430978540677</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>92.24791664019762</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>67.83314520581563</v>
@@ -25360,22 +25360,22 @@
         <v>77.13555722452635</v>
       </c>
       <c r="S37" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>59.78359548796298</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>6.10722569900139</v>
       </c>
       <c r="Y37" t="n">
         <v>118.4268191994517</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58.73267883734647</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C38" t="n">
         <v>265.1150576183644</v>
@@ -25397,19 +25397,19 @@
         <v>30.68187879454885</v>
       </c>
       <c r="E38" t="n">
-        <v>57.92920724612767</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F38" t="n">
-        <v>306.7182115890683</v>
+        <v>82.87488291557733</v>
       </c>
       <c r="G38" t="n">
         <v>315.1449033624919</v>
       </c>
       <c r="H38" t="n">
-        <v>152.473819485276</v>
+        <v>15.47363928963304</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>108.8622354336022</v>
       </c>
       <c r="T38" t="n">
-        <v>122.9380154114882</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>151.1878187551933</v>
@@ -25451,7 +25451,7 @@
         <v>227.5944243174918</v>
       </c>
       <c r="W38" t="n">
-        <v>249.0831345647699</v>
+        <v>174.8599460806473</v>
       </c>
       <c r="X38" t="n">
         <v>269.5732665258259</v>
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>47.28723141199562</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>8.572779105701231</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,13 +25518,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>84.67917956695818</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5.713593335367008</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>67.83314520581563</v>
       </c>
       <c r="H40" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>55.29264077461515</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>138.8123524588458</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289.3746615468078</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C41" t="n">
-        <v>100.6203538369225</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D41" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E41" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F41" t="n">
-        <v>313.5168656250387</v>
+        <v>153.1912725596789</v>
       </c>
       <c r="G41" t="n">
-        <v>150.65019958105</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H41" t="n">
-        <v>74.8222641816821</v>
+        <v>85.79002893373465</v>
       </c>
       <c r="I41" t="n">
-        <v>117.1167094537331</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S41" t="n">
-        <v>21.29563772847285</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T41" t="n">
-        <v>129.7366694474586</v>
+        <v>110.0734794284994</v>
       </c>
       <c r="U41" t="n">
-        <v>157.9864727911637</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V41" t="n">
-        <v>234.3930783534621</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W41" t="n">
-        <v>255.8817886007402</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X41" t="n">
-        <v>276.3719205617963</v>
+        <v>116.0463274964365</v>
       </c>
       <c r="Y41" t="n">
-        <v>292.8787585393808</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>54.08588544796598</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E42" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F42" t="n">
-        <v>51.7100322767111</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G42" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H42" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S42" t="n">
-        <v>78.32399098716505</v>
+        <v>49.99271911120095</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,7 +25770,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>103.9456723850434</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>73.88764098195506</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D43" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E43" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F43" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G43" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S43" t="n">
-        <v>63.78728448243371</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>134.5864093116087</v>
+        <v>111.7642699326723</v>
       </c>
       <c r="U43" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V43" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W43" t="n">
-        <v>21.87046040250596</v>
+        <v>32.8382251545585</v>
       </c>
       <c r="X43" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="44">
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>327.1227972210932</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>182.8858643100898</v>
+        <v>186.1745953211195</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T44" t="n">
         <v>195.5058243038152</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="45">
@@ -25944,19 +25944,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E45" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>120.7679181440974</v>
       </c>
       <c r="G45" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y45" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26029,22 +26029,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9852032860598</v>
       </c>
       <c r="F46" t="n">
-        <v>122.9722886624218</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G46" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26080,7 +26080,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>315575.3000207037</v>
+        <v>314725.3970394385</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>348648.8116804498</v>
+        <v>352044.7648193748</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>464633.7709983459</v>
+        <v>463733.5531901852</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>479428.7762350873</v>
+        <v>478528.5584269263</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473383.518920008</v>
+        <v>479987.7744201932</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>591143.9141677719</v>
+        <v>591143.914167772</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>515389.4881627164</v>
+        <v>504255.9323860552</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>819276.3387170385</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="E2" t="n">
-        <v>240759.9041363483</v>
+        <v>240759.9041363482</v>
       </c>
       <c r="F2" t="n">
-        <v>313259.6611628252</v>
+        <v>312126.4571878052</v>
       </c>
       <c r="G2" t="n">
-        <v>343034.3064899726</v>
+        <v>345870.2363262743</v>
       </c>
       <c r="H2" t="n">
-        <v>462971.4836804479</v>
+        <v>461771.1932695661</v>
       </c>
       <c r="I2" t="n">
-        <v>476034.1908241364</v>
+        <v>474833.9004132546</v>
       </c>
       <c r="J2" t="n">
-        <v>467973.8477373635</v>
+        <v>476779.5217376102</v>
       </c>
       <c r="K2" t="n">
-        <v>624987.7080677155</v>
+        <v>624987.7080677159</v>
       </c>
       <c r="L2" t="n">
-        <v>624987.708067716</v>
+        <v>624987.7080677158</v>
       </c>
       <c r="M2" t="n">
-        <v>578427.4237726931</v>
+        <v>578427.4237726933</v>
       </c>
       <c r="N2" t="n">
-        <v>578427.4237726933</v>
+        <v>578427.423772693</v>
       </c>
       <c r="O2" t="n">
-        <v>536674.4825166366</v>
+        <v>523521.7491633534</v>
       </c>
       <c r="P2" t="n">
-        <v>230602.7702499765</v>
+        <v>230602.7702499764</v>
       </c>
     </row>
     <row r="3">
@@ -26375,22 +26375,22 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>24177.57121766968</v>
+        <v>23797.30142739435</v>
       </c>
       <c r="G3" t="n">
-        <v>14403.15876208833</v>
+        <v>16323.18379695649</v>
       </c>
       <c r="H3" t="n">
-        <v>54141.19445298272</v>
+        <v>52251.12372808809</v>
       </c>
       <c r="I3" t="n">
         <v>7336.767107248528</v>
       </c>
       <c r="J3" t="n">
-        <v>5438.923228776286</v>
+        <v>8608.961040982445</v>
       </c>
       <c r="K3" t="n">
-        <v>74687.34409333822</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>97519.0401992191</v>
+        <v>95325.00563235155</v>
       </c>
       <c r="F4" t="n">
-        <v>138899.5144966252</v>
+        <v>136058.684410913</v>
       </c>
       <c r="G4" t="n">
-        <v>150968.7512829811</v>
+        <v>149490.6512566595</v>
       </c>
       <c r="H4" t="n">
-        <v>207516.0175009562</v>
+        <v>203635.3443747068</v>
       </c>
       <c r="I4" t="n">
-        <v>212669.9839605182</v>
+        <v>208653.3111531975</v>
       </c>
       <c r="J4" t="n">
-        <v>208063.4951494521</v>
+        <v>209765.2344007233</v>
       </c>
       <c r="K4" t="n">
-        <v>297817.0153329112</v>
+        <v>294486.3089029805</v>
       </c>
       <c r="L4" t="n">
-        <v>297817.0153329112</v>
+        <v>294486.3089029806</v>
       </c>
       <c r="M4" t="n">
-        <v>271194.5103431799</v>
+        <v>267863.8039132493</v>
       </c>
       <c r="N4" t="n">
-        <v>271194.5103431799</v>
+        <v>267863.8039132493</v>
       </c>
       <c r="O4" t="n">
-        <v>251730.6913121381</v>
+        <v>241762.2790016676</v>
       </c>
       <c r="P4" t="n">
-        <v>88974.90793638563</v>
+        <v>86618.58254766345</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>3380.638385640407</v>
+        <v>3340.677259392087</v>
       </c>
       <c r="G5" t="n">
-        <v>6575.676613689991</v>
+        <v>6961.632710638797</v>
       </c>
       <c r="H5" t="n">
-        <v>16927.8826970628</v>
+        <v>16887.92157081448</v>
       </c>
       <c r="I5" t="n">
-        <v>18605.35623289002</v>
+        <v>18565.3951066417</v>
       </c>
       <c r="J5" t="n">
-        <v>18337.00418677245</v>
+        <v>18630.17044656707</v>
       </c>
       <c r="K5" t="n">
         <v>23644.88680662817</v>
@@ -26506,7 +26506,7 @@
         <v>22029.84334272681</v>
       </c>
       <c r="O5" t="n">
-        <v>18263.24906852723</v>
+        <v>17504.20445928715</v>
       </c>
       <c r="P5" t="n">
         <v>1677.473535827221</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357931.5649840674</v>
+        <v>360125.599550935</v>
       </c>
       <c r="C6" t="n">
-        <v>357931.5649840672</v>
+        <v>360125.599550935</v>
       </c>
       <c r="D6" t="n">
-        <v>357931.5649840672</v>
+        <v>360125.599550935</v>
       </c>
       <c r="E6" t="n">
-        <v>134408.3964732257</v>
+        <v>136602.4310400932</v>
       </c>
       <c r="F6" t="n">
-        <v>146801.9370628899</v>
+        <v>148929.7940901058</v>
       </c>
       <c r="G6" t="n">
-        <v>171086.7198312132</v>
+        <v>173094.7685620195</v>
       </c>
       <c r="H6" t="n">
-        <v>184386.3890294461</v>
+        <v>188996.8035959567</v>
       </c>
       <c r="I6" t="n">
-        <v>237422.0835234797</v>
+        <v>240278.4270461669</v>
       </c>
       <c r="J6" t="n">
-        <v>236134.4251723627</v>
+        <v>239775.1558493374</v>
       </c>
       <c r="K6" t="n">
-        <v>228838.4618348379</v>
+        <v>235339.2060769752</v>
       </c>
       <c r="L6" t="n">
-        <v>303525.8059281766</v>
+        <v>306856.512358107</v>
       </c>
       <c r="M6" t="n">
-        <v>285203.0700867864</v>
+        <v>288533.7765167171</v>
       </c>
       <c r="N6" t="n">
-        <v>285203.0700867865</v>
+        <v>288533.7765167169</v>
       </c>
       <c r="O6" t="n">
-        <v>266680.5421359712</v>
+        <v>264255.2657023986</v>
       </c>
       <c r="P6" t="n">
-        <v>139950.3887777636</v>
+        <v>142306.7141664858</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="G2" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="H2" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="I2" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="J2" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="K2" t="n">
         <v>119.3687616514996</v>
@@ -26722,7 +26722,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="O2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.54997085607869</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="H4" t="n">
         <v>196.2533034131748</v>
@@ -26826,7 +26826,7 @@
         <v>223.843328673491</v>
       </c>
       <c r="O4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="P4" t="n">
         <v>27.59002526031614</v>
@@ -26917,22 +26917,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>30.22196402208709</v>
+        <v>29.74662678424294</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>19.21092749885646</v>
+        <v>19.21092749885645</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="K2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.54997085607869</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="H4" t="n">
-        <v>143.7033325570961</v>
+        <v>136.6981150703013</v>
       </c>
       <c r="I4" t="n">
         <v>27.59002526031614</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>30.22196402208709</v>
+        <v>29.74662678424294</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19.21092749885646</v>
+        <v>19.21092749885645</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.798654035970358</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="P2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="3">
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>52.54997085607869</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="P4" t="n">
-        <v>143.7033325570961</v>
+        <v>136.6981150703013</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="C14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="D14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="E14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="F14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="G14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="H14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="I14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="S14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="T14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="U14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="V14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="W14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="X14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="C15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="D15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="E15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="F15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="G15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="H15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="I15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="S15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="T15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="U15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="V15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="W15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="X15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="Y15" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="C16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="D16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="E16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="F16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="G16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="H16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="I16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="J16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="R16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="S16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="T16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="U16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="V16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="W16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="X16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="C17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="D17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="E17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="F17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="G17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="H17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="I17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="S17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="T17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="U17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="V17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="W17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="X17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="Y17" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="C18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="D18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="E18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="F18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="G18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="H18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="I18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="S18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="T18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="U18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="V18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="W18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="X18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="Y18" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="C19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="D19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="E19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="F19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="G19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="H19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="I19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="J19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="K19" t="n">
-        <v>40.2126632366319</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>19.97131138103293</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>15.42301596364493</v>
       </c>
       <c r="O19" t="n">
-        <v>16.75105585091515</v>
+        <v>27.51306801163428</v>
       </c>
       <c r="P19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="R19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="S19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="T19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="U19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="V19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="W19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="X19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.2126632366319</v>
+        <v>39.73732599878775</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="C20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="D20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="E20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="F20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="G20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="H20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="I20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="S20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="T20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="U20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="V20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="W20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="X20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="Y20" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="C21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="D21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="E21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="F21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="G21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="H21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="I21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="S21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="T21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="U21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="V21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="W21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="X21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="Y21" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="C22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="D22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="E22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="F22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="G22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="H22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="I22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="J22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="K22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="L22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="M22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="N22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="O22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="P22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="R22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="S22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="T22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="U22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="V22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="W22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="X22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="C23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="D23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="E23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="F23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="G23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="H23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="I23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="S23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="T23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="U23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="V23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="W23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="X23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="C24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="D24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="E24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="F24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="G24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="H24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="I24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="S24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="T24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="U24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="V24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="W24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="X24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="Y24" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="C25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="D25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="E25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="F25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="G25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="H25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="I25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="J25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="K25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="L25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="M25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="N25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="O25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="P25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="R25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="S25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="T25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="U25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="V25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="W25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="X25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.42359073548836</v>
+        <v>58.9482534976442</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="C26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="D26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="E26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="F26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="G26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="H26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="I26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="S26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="T26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="U26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="V26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="W26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="X26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="C27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="D27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="E27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="F27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="G27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="H27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="I27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="S27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="T27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="U27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="V27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="W27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="X27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="Y27" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="C28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="D28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="E28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="F28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="G28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="H28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="I28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="J28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="K28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="L28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="M28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="N28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="O28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="P28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="R28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="S28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="T28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="U28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="V28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="W28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="X28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.23154555691391</v>
+        <v>59.71875558432745</v>
       </c>
     </row>
     <row r="29">
@@ -29703,7 +29703,7 @@
         <v>119.3687616514996</v>
       </c>
       <c r="N31" t="n">
-        <v>119.3687616514997</v>
+        <v>119.3687616514996</v>
       </c>
       <c r="O31" t="n">
         <v>119.3687616514996</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="44">
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>50.42673971037856</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>52.54997085607869</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="O17" t="n">
-        <v>52.54997085607869</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="P17" t="n">
-        <v>52.54997085607869</v>
+        <v>57.14891810679782</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="M18" t="n">
-        <v>50.42673971037856</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="O18" t="n">
-        <v>52.54997085607869</v>
+        <v>57.14891810679782</v>
       </c>
       <c r="P18" t="n">
-        <v>52.54997085607869</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.54997085607869</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>17.94317141074904</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>39.58387696184059</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="N19" t="n">
-        <v>44.13217237922859</v>
+        <v>59.55518834287352</v>
       </c>
       <c r="O19" t="n">
-        <v>41.33618376495482</v>
+        <v>52.09819592567396</v>
       </c>
       <c r="P19" t="n">
-        <v>37.49122250152539</v>
+        <v>37.01588526368123</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>51.98041100429548</v>
       </c>
       <c r="L20" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>157.6680020012572</v>
+        <v>196.2533034131748</v>
       </c>
       <c r="N20" t="n">
         <v>196.2533034131748</v>
@@ -36136,7 +36136,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>196.2533034131748</v>
@@ -36209,16 +36209,16 @@
         <v>196.2533034131748</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>196.2533034131748</v>
       </c>
       <c r="O21" t="n">
-        <v>187.8578687377702</v>
+        <v>188.3238770126426</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>37.15409890960551</v>
+        <v>36.67876167176134</v>
       </c>
       <c r="L22" t="n">
-        <v>87.0136159958045</v>
+        <v>86.53827875796034</v>
       </c>
       <c r="M22" t="n">
-        <v>99.00746769732895</v>
+        <v>98.53213045948479</v>
       </c>
       <c r="N22" t="n">
-        <v>103.555763114717</v>
+        <v>103.0804258768728</v>
       </c>
       <c r="O22" t="n">
-        <v>84.00871864952803</v>
+        <v>83.53338141168388</v>
       </c>
       <c r="P22" t="n">
-        <v>56.70215000038185</v>
+        <v>56.22681276253768</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>113.9047349336563</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
         <v>219.1673002655598</v>
@@ -36373,7 +36373,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>22.57564776940615</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>57.43480953742917</v>
+        <v>30.31079255198528</v>
       </c>
       <c r="M24" t="n">
         <v>223.843328673491</v>
@@ -36449,13 +36449,13 @@
         <v>223.843328673491</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>223.843328673491</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>37.15409890960551</v>
+        <v>36.67876167176134</v>
       </c>
       <c r="L25" t="n">
-        <v>87.0136159958045</v>
+        <v>86.53827875796034</v>
       </c>
       <c r="M25" t="n">
-        <v>99.00746769732895</v>
+        <v>98.53213045948479</v>
       </c>
       <c r="N25" t="n">
-        <v>103.555763114717</v>
+        <v>103.0804258768728</v>
       </c>
       <c r="O25" t="n">
-        <v>84.00871864952803</v>
+        <v>83.53338141168388</v>
       </c>
       <c r="P25" t="n">
-        <v>56.70215000038185</v>
+        <v>56.22681276253768</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>33.96205373103106</v>
+        <v>37.44926375844459</v>
       </c>
       <c r="L28" t="n">
-        <v>83.82157081723005</v>
+        <v>87.30878084464359</v>
       </c>
       <c r="M28" t="n">
-        <v>95.8154225187545</v>
+        <v>99.30263254616804</v>
       </c>
       <c r="N28" t="n">
-        <v>100.3637179361425</v>
+        <v>103.850927963556</v>
       </c>
       <c r="O28" t="n">
-        <v>80.81667347095359</v>
+        <v>84.30388349836713</v>
       </c>
       <c r="P28" t="n">
-        <v>53.5101048218074</v>
+        <v>56.99731484922093</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
-        <v>113.9047349336563</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>151.1772356187528</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>18.07984208954505</v>
+        <v>184.0586075756488</v>
       </c>
       <c r="M30" t="n">
-        <v>223.843328673491</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>223.843328673491</v>
@@ -36926,7 +36926,7 @@
         <v>223.843328673491</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.00958153482682</v>
+        <v>26.00958153482681</v>
       </c>
       <c r="K31" t="n">
-        <v>97.09926982561674</v>
+        <v>97.09926982561673</v>
       </c>
       <c r="L31" t="n">
         <v>146.9587869118157</v>
@@ -37008,7 +37008,7 @@
         <v>116.6473209163931</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.20671839980521</v>
+        <v>33.2067183998052</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>36.06549687937724</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
@@ -37081,7 +37081,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>82.71190519425168</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37151,19 +37151,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>223.843328673491</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>223.843328673491</v>
       </c>
       <c r="N33" t="n">
+        <v>57.43480953742917</v>
+      </c>
+      <c r="O33" t="n">
         <v>223.843328673491</v>
       </c>
-      <c r="O33" t="n">
-        <v>18.07984208954505</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>26.00958153482682</v>
+        <v>26.00958153482681</v>
       </c>
       <c r="K34" t="n">
-        <v>97.09926982561674</v>
+        <v>97.09926982561673</v>
       </c>
       <c r="L34" t="n">
         <v>146.9587869118157</v>
@@ -37245,7 +37245,7 @@
         <v>116.6473209163931</v>
       </c>
       <c r="Q34" t="n">
-        <v>33.20671839980521</v>
+        <v>33.2067183998052</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>36.06549687937724</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>82.71190519425168</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37394,10 +37394,10 @@
         <v>223.843328673491</v>
       </c>
       <c r="N36" t="n">
+        <v>18.07984208954505</v>
+      </c>
+      <c r="O36" t="n">
         <v>223.843328673491</v>
-      </c>
-      <c r="O36" t="n">
-        <v>18.07984208954505</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>82.71190519425168</v>
       </c>
       <c r="P38" t="n">
-        <v>22.57564776940615</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>223.843328673491</v>
+        <v>184.0586075756488</v>
       </c>
       <c r="M39" t="n">
         <v>223.843328673491</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>223.843328673491</v>
       </c>
-      <c r="O39" t="n">
-        <v>18.07984208954505</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37783,19 +37783,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>171.2933578174123</v>
+        <v>80.67069374414021</v>
       </c>
       <c r="M41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="N41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>13.67044422615523</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="M42" t="n">
-        <v>94.2769004173862</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="N42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="O42" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>171.2933578174123</v>
+        <v>31.02643763257488</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>71.08968829078992</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="L43" t="n">
-        <v>120.9492053769889</v>
+        <v>116.9866581117312</v>
       </c>
       <c r="M43" t="n">
-        <v>132.9430570785134</v>
+        <v>128.9805098132557</v>
       </c>
       <c r="N43" t="n">
-        <v>137.4913524959014</v>
+        <v>133.5288052306437</v>
       </c>
       <c r="O43" t="n">
-        <v>117.9443080307124</v>
+        <v>113.9817607654548</v>
       </c>
       <c r="P43" t="n">
-        <v>90.63773938156626</v>
+        <v>86.67519211630857</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.19713686497839</v>
+        <v>3.234589599720692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M44" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O44" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>27.59002526031614</v>
@@ -38102,7 +38102,7 @@
         <v>26.47527676494984</v>
       </c>
       <c r="M45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>27.59002526031614</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
